--- a/mail.xlsx
+++ b/mail.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="452">
   <si>
     <t>Масти</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Протокол опроса Горбунова Глеба</t>
+  </si>
+  <si>
+    <t>В протоколах содержится важная информация про вечер убийства и отношений Антона и других участников событий. Внимательно ознакомьтесь.  С уважением, Кира Райнис</t>
   </si>
   <si>
     <t>Протокол опроса Мухиной Марии</t>
@@ -340,10 +343,9 @@
         <rFont val="Arial"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> ). 
-Вы отлично справились с задачей! 
-С уважением,
-Кира Райнис</t>
+      <t xml:space="preserve"> ).  
+Вы отлично справились с задачей!   
+С уважением, Кира Райнис</t>
     </r>
   </si>
   <si>
@@ -370,22 +372,13 @@
     <t>Павел Старков</t>
   </si>
   <si>
-    <t>У нас пока не достаточно оснований на исключение Павла из списка подозреваемых. Алиби пока слабовато выглядит. Нужно больше информации. Будем работать по нему.
-Подумайте еще.
-Жду вашу версию.
-С уважением,
-Кира Райнис</t>
+    <t>У нас пока не достаточно оснований на исключение Павла из списка подозреваемых. Алиби пока слабовато выглядит. Нужно больше информации. Будем работать по нему. Подумайте еще. Жду вашу версию.  С уважением, Кира Райнис</t>
   </si>
   <si>
     <t>Глеб Горбунов</t>
   </si>
   <si>
-    <t>Я так не думаю. 
-У нас пока не достаточно оснований на исключение Глеба из списка подозреваемых. Лучший друг Антона... Может что-то знает? И скрывает? Алиби проверим. Нужно больше информации. Будем работать по нему.
-Подумайте еще.
-Жду вашу версию.
-С уважением,
-Кира Райнис</t>
+    <t>Я так не думаю.  У нас пока не достаточно оснований на исключение Глеба из списка подозреваемых. Лучший друг Антона... Может что-то знает? И скрывает? Алиби проверим. Нужно больше информации. Будем работать по нему. Подумайте еще. Жду вашу версию.  С уважением, Кира Райнис</t>
   </si>
   <si>
     <t>Сергей Фролов</t>
@@ -527,9 +520,7 @@
     <t>Зашифрованная переписка</t>
   </si>
   <si>
-    <t>Мне кажется текст напечатан на клавиатуре с небольшим сдвигом. 
-С уважением,
-Кира Райнис</t>
+    <t>Мне кажется текст напечатан на клавиатуре с небольшим сдвигом.   С уважением, Кира Райнис</t>
   </si>
   <si>
     <t>Кажется, одно сообщение - сдвиг вправо, второе - сдвиг влево. Дальше разберетесь?
@@ -605,10 +596,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <sz val="10.0"/>
-      </rPr>
       <t xml:space="preserve">Хм, я тоже так думаю. Ирина мне скнула чек на доставку пиццы в день убийства (фото по ссылке - </t>
     </r>
     <r>
@@ -625,8 +612,7 @@
         <rFont val="Arial"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> ). 
-А еще я поговорила с курьером, который эту пиццу принес (запись по ссылке - </t>
+      <t xml:space="preserve"> ).  А еще я поговорила с курьером, который эту пиццу принес (запись по ссылке - </t>
     </r>
     <r>
       <rPr>
@@ -642,10 +628,7 @@
         <rFont val="Arial"/>
         <sz val="10.0"/>
       </rPr>
-      <t>). 
-Думаю, что Ирина не виновата. Очень ее жаль конечно. Такое горе...
-С уважением,
-Кира Райнис</t>
+      <t>).  Думаю, что Ирина не виновата. Очень ее жаль конечно. Такое горе...  С уважением, Кира Райнис</t>
     </r>
   </si>
   <si>
@@ -656,12 +639,7 @@
 Кира Райнис</t>
   </si>
   <si>
-    <t>Нууу... Я не уверена. Лист из книги скорее всего про Старкова. Но, если у Антона и правда есть компромат, который будет обнародлван после его смерти? Зачем тогда Павлу его убивать? Пока не понятно. 
-Может мы что-то не знаем? Но мотив у Паши есть. Надо разбираться дальше.
-Подумайте еще.
-Жду вашу версию.
-С уважением,
-Кира Райнис</t>
+    <t>Нууу... Я не уверена. Лист из книги скорее всего про Старкова. Но, если у Антона и правда есть компромат, который будет обнародлван после его смерти? Зачем тогда Павлу его убивать? Пока не понятно.  Может мы что-то не знаем? Но мотив у Паши есть. Надо разбираться дальше. Подумайте еще. Жду вашу версию.  С уважением, Кира Райнис</t>
   </si>
   <si>
     <t>По нему пока вообще не ясно. И не было времени заняться им вплотную. Уверена, что исключать его рано. Нужно собрать больше информации.  
@@ -671,11 +649,7 @@
 Кира Райнис</t>
   </si>
   <si>
-    <t>Сергей мне кажется малоубедительным. Не могу сказать, что верю его рассказу. Нужно больше информации. 
-Подумайте еще.
-Жду вашу версию.
-С уважением,
-Кира Райнис</t>
+    <t>Сергей мне кажется малоубедительным. Не могу сказать, что верю его рассказу. Нужно больше информации.  Подумайте еще. Жду вашу версию.  С уважением, Кира Райнис</t>
   </si>
   <si>
     <t>Не уверена, что мы можем сейчас исключить Марлена. Не слишком убедительно все звучит. Надо проверить алиби.
@@ -873,7 +847,7 @@
     <t>Буквы со стразами</t>
   </si>
   <si>
-    <t>Какой-то набор букв... Попробуйте сложить слово или фразу. Может это пролбет свет на то, ктонаписал письмо?
+    <t>Какой-то набор букв... Попробуйте сложить слово или фразу. Может это прольет свет на то, кто написал письмо?
 С уважением,  
 Кира Райнис</t>
   </si>
@@ -1020,220 +994,15 @@
 Кира Райнис</t>
   </si>
   <si>
-    <t>Эпизод 4</t>
-  </si>
-  <si>
-    <t>20 предметов</t>
-  </si>
-  <si>
-    <t>АФ032020 БАКУ</t>
-  </si>
-  <si>
-    <t>Стенограмма опроса свидетеля (4 шт.)</t>
-  </si>
-  <si>
-    <t>Стенограмма опроса Сергей Фролов</t>
-  </si>
-  <si>
-    <t>Сергей поделился важной информацией относительно вечера убийства. Теперь ясно, откуда МДМА в крови Антона. Вряд ли он мог оказать достойное сопротивление в таком состоянии...
+    <t>Алина Кукушкина и Ирина Фокина</t>
+  </si>
+  <si>
+    <t>Их мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать их не будем, чтобы не терять время.
 С уважением,
 Кира Райнис</t>
   </si>
   <si>
-    <t>Стенограмма опроса Нино Микеладзе</t>
-  </si>
-  <si>
-    <t>Нино Эдуардовна рассказала много интересного. Но, что-то она скрывает... Или намеренно меня старается запутать.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Стенограмма опроса Мария Мухина</t>
-  </si>
-  <si>
-    <t>Мария путается в показаниях. Как-то мне это не очень нравится. 
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Стенограмма опроса Ирина Фокина</t>
-  </si>
-  <si>
-    <t>Ирина ведет себя странно. "Тут помню, тут не помню." Как будто что-то скрывает. 
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Фото детского рисунка</t>
-  </si>
-  <si>
-    <t>Говорят, "дети не врут". Интересно, кого же Маша нарисовала. Кто этот "М"?...</t>
-  </si>
-  <si>
-    <t>Новиков прислал старые протоколы. Помогает, как может!
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Старые протоколы полиции</t>
-  </si>
-  <si>
-    <t>Прочитала их и как будто вернулась в прошлое. Вся эта компашка еще в те времена вызывала много вопросов...
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Фото с камер видеонаблюдения (2 шт.)</t>
-  </si>
-  <si>
-    <t>На фото Глеб и Марлен. Обратите внимание на время фиксации.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Фото из гаража жертвы (3 шт.)</t>
-  </si>
-  <si>
-    <t>Фото из гаража №1</t>
-  </si>
-  <si>
-    <t>Похоже на какой-то контейрер. Или шкаф с мягкими стенками.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Фото из гаража №2</t>
-  </si>
-  <si>
-    <t>Какие-то лампы, фильтры.. Странный набор.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Фото металлического ящика</t>
-  </si>
-  <si>
-    <t>Ящик у меня. Есть идеи как его открыть? Какой код? Пришлите ваш вариант, попробую открыть.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Накладная из интернет-магазина</t>
-  </si>
-  <si>
-    <t>Удобрения, лампы, фильтры... Для чего это Антону? Пока не понятно.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Обрывок договора</t>
-  </si>
-  <si>
-    <t>Судя по всему это какое-то соглашение о конфиденциальности. Но что-то ответственность очень жестокая... Наверное платят хорошо.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Еще одна страница из книги "Масти". Этот Юрий, конечно еще тот подонок.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Газетная статья (2 шт.)</t>
-  </si>
-  <si>
-    <t>Газетная статья Пир во время чумы</t>
-  </si>
-  <si>
-    <t>Мария Мухина в своем стиле! Хотя, здесь я с ней согласна. Какие гуляния в эпидемию???
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Газетная статья Я тоже, Фролов</t>
-  </si>
-  <si>
-    <t>Ну здесь все и так ясно. Ничего нового про Фролова не написано. Вайнштейн 2.0. Ох, допрыгается он.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Подарочный пакет</t>
-  </si>
-  <si>
-    <t>Иногда подарочный пакет, это просто подарочный пакет...
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Поздравительная открытка (2 шт. )</t>
-  </si>
-  <si>
-    <t>Две открытки - два разных почерка... Ирина пользуется популярностью...
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Пенал</t>
-  </si>
-  <si>
-    <t>Просто пенал. Важно, что внутри.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Чек из ломбарда</t>
-  </si>
-  <si>
-    <t>Хм... Антона продал какой-то кулон. Были нужны деньги? Или по другой причине...
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Аудиокассета</t>
-  </si>
-  <si>
-    <t>Не могу послушать, что там. Скорее всего кассета со школьных времен.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Фото А. Фокина</t>
-  </si>
-  <si>
-    <t>Антон с Натальей. Молодые и красивые. Запонка все-таки принадлежала Антону...
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Письмо со школьных времен</t>
-  </si>
-  <si>
-    <t>Ну тут все понятно. Любовь-морковь и страдания. Классика.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Брелок (2 шт)</t>
-  </si>
-  <si>
-    <t>Интересные брелоки. Телепузики эти. Помню, как они меня бесили.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>Записка</t>
-  </si>
-  <si>
-    <t>Ох, тайны Антона. Очередная поклонница написала. Кто-то из старых знакомых.
-С уважением,
-Кира Райнис</t>
-  </si>
-  <si>
-    <t>код на открытие ящика</t>
-  </si>
-  <si>
-    <t>АФ032020 КОД</t>
+    <t>Алина Кукушкина и Светлана Комарова</t>
   </si>
   <si>
     <r>
@@ -1241,7 +1010,668 @@
         <rFont val="Arial"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">Браво! Все получилось! Тут внутри Блокнот с записями и флешка (фото по ссылкам - </t>
+      <t xml:space="preserve">Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Думаю, Света не способна на убийство. И я дозвонилась ее адвокату (запись разговора по ссылке - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>https://clck.ru/bUQG6</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> ). 
+Он подтвердил то, что в момент убийства она разговаривала с ним.
+Я согласна с вами.
+С уважением,
+Кира Райнис
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Алина Кукушкина и Павел Старков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Думаю, Павел не способен на убийство. Я поговорила с другом Пабло, который отметился в комментариях к постам на странице Старкова (запись разговора по ссылке - https://clck.ru/bURNL ). 
+У меня не осталось сомнений по поводу Паши. Он не виновен. 
+С уважением,
+Кира Райнис
+</t>
+  </si>
+  <si>
+    <t>Алина Кукушкина и Глеб Горбунов</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+С Глебом пока не совсем ясно. Похоже на то, что у них с Антоном были какие-то дела по бизнесу. Надо поискать в этом направлении. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алина Кукушкина и Сергей Фролов</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+С Фроловым пока не понятно. Не было времени заняться им вплотную. Пока не будем его исключать.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алина Кукушкина и Марлен Кветенадзе</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Марлену пока не понятно. Разговор этот с Антоном в машине... Пока не будем его исключать. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алина Кукушкина и Наталья Ткачева</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Не могу на 100% сказать, что Наталья не виновна. Как-то странно, что она исчезла сразу после убийства Антона. Пока наблюдаем за ней.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алина Кукушкина и Мария Мухина</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Мухину рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирина Фокина и Светлана Комарова</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Думаю, Света не способна на убийство. И я дозвонилась ее адвокату (запись разговора по ссылке - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>https://clck.ru/bUQG6</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> ). 
+Он подтвердил то, что в момент убийства она разговаривала с ним.
+Я согласна с вами.
+С уважением,
+Кира Райнис
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Ирина Фокина и Павел Старков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Думаю, Павел не способен на убийство. Я поговорила с другом Пабло, который отметился в комментариях к постам на странице Старкова (запись разговора по ссылке - https://clck.ru/bURNL ). 
+У меня не осталось сомнений по поводу Паши. Он не виновен. 
+С уважением,
+Кира Райнис
+</t>
+  </si>
+  <si>
+    <t>Ирина Фокина и Глеб Горбунов</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+С Глебом пока не совсем ясно. Похоже на то, что у них с Антоном были какие-то дела по бизнесу. Надо поискать в этом направлении. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирина Фокина и Сергей Фролов</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+С Фроловым пока не понятно. Не было времени заняться им вплотную. Пока не будем его исключать.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирина Фокина и Марлен Кветенадзе</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Марлену пока не понятно. Разговор этот с Антоном в машине... Пока не будем его исключать. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирина Фокина и Наталья Ткачева</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Не могу на 100% сказать, что Наталья не виновна. Как-то странно, что она исчезла сразу после убийства Антона. Пока наблюдаем за ней.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирина Фокина и Мария Мухина</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Мухину рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлана Комарова и Павел Старков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, думаю, они не способны на убийство. И я дозвонилась адвокату Комаровой (запись разговора по ссылке - https://clck.ru/bUQG6 ). 
+Он подтвердил то, что в момент убийства она разговаривала с ним.
+И я поговорила с другом Пабло, который отметился в комментариях к постам на странице Старкова (запись разговора по ссылке - https://clck.ru/bURNL ). 
+У меня не осталось сомнений по поводу Паши. Он не виновен. 
+Согласна с вами.
+С уважением,
+Кира Райнис
+</t>
+  </si>
+  <si>
+    <t>Светлана Комарова и Глеб Горбунов</t>
+  </si>
+  <si>
+    <t>Думаю, Света не способна на убийство. И я дозвонилась ее адвокату (запись разговора по ссылке - https://clck.ru/bUQG6 ). 
+Он подтвердил то, что в момент убийства она разговаривала с ним.
+А с Глебом пока не совсем ясно. Похоже на то, что у них с Антоном были какие-то дела по бизнесу. Надо поискать в этом направлении. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлана Комарова и Сергей Фролов</t>
+  </si>
+  <si>
+    <t>Думаю, Света не способна на убийство. И я дозвонилась ее адвокату (запись разговора по ссылке - https://clck.ru/bUQG6 ). 
+Он подтвердил то, что в момент убийства она разговаривала с ним.
+А с Фроловым пока не понятно. Не было времени заняться им вплотную. Пока не будем его исключать.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлана Комарова и Марлен Кветенадзе</t>
+  </si>
+  <si>
+    <t>Думаю, Света не способна на убийство. И я дозвонилась ее адвокату (запись разговора по ссылке - https://clck.ru/bUQG6 ). 
+Он подтвердил то, что в момент убийства она разговаривала с ним.
+А по Марлену пока не понятно. Разговор этот с Антоном в машине... Пока не будем его исключать. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлана Комарова и Наталья Ткачева</t>
+  </si>
+  <si>
+    <t>Думаю, Света не способна на убийство. И я дозвонилась ее адвокату (запись разговора по ссылке - https://clck.ru/bUQG6 ). 
+Он подтвердил то, что в момент убийства она разговаривала с ним.
+Не могу на 100% сказать, что Наталья не виновна. Как-то странно, что она исчезла сразу после убийства Антона. Пока наблюдаем за ней.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлана Комарова и Мария Мухина</t>
+  </si>
+  <si>
+    <t>Думаю, Света не способна на убийство. И я дозвонилась ее адвокату (запись разговора по ссылке - https://clck.ru/bUQG6 ). 
+Он подтвердил то, что в момент убийства она разговаривала с ним.
+А вот Мухину рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павел Старков и Глеб Горбунов</t>
+  </si>
+  <si>
+    <t>Я поговорила с другом Пабло, который отметился в комментариях к постам на странице Старкова (запись разговора по ссылке - https://clck.ru/bURNL ). 
+У меня не осталось сомнений по поводу Паши. Он не виновен. 
+Согласна с вами.
+А с Глебом пока не совсем ясно. Похоже на то, что у них с Антоном были какие-то дела по бизнесу. Надо поискать в этом направлении. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павел Старков и Сергей Фролов</t>
+  </si>
+  <si>
+    <t>Я поговорила с другом Пабло, который отметился в комментариях к постам на странице Старкова (запись разговора по ссылке - https://clck.ru/bURNL ). 
+У меня не осталось сомнений по поводу Паши. Он не виновен. 
+Согласна с вами.
+А с Фроловым пока не понятно. Не было времени заняться им вплотную. Пока не будем его исключать.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павел Старков и Марлен Кветенадзе</t>
+  </si>
+  <si>
+    <t>Я поговорила с другом Пабло, который отметился в комментариях к постам на странице Старкова (запись разговора по ссылке - https://clck.ru/bURNL ). 
+У меня не осталось сомнений по поводу Паши. Он не виновен. 
+Согласна с вами.
+А по Марлену пока не понятно. Разговор этот с Антоном в машине... Пока не будем его исключать. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павел Старков и Наталья Ткачева</t>
+  </si>
+  <si>
+    <t>Я поговорила с другом Пабло, который отметился в комментариях к постам на странице Старкова (запись разговора по ссылке - https://clck.ru/bURNL ). 
+У меня не осталось сомнений по поводу Паши. Он не виновен. 
+Согласна с вами.
+Не могу на 100% сказать, что Наталья не виновна. Как-то странно, что она исчезла сразу после убийства Антона. Пока наблюдаем за ней.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павел Старков и Мария Мухина</t>
+  </si>
+  <si>
+    <t>Я поговорила с другом Пабло, который отметился в комментариях к постам на странице Старкова (запись разговора по ссылке - https://clck.ru/bURNL ). 
+У меня не осталось сомнений по поводу Паши. Он не виновен. 
+Согласна с вами.
+А вот Мухину рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Глеб Горбунов и Сергей Фролов</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Похоже на то, что у Глеба с Антоном были какие-то дела по бизнесу. Надо поискать в этом направлении. 
+И не было пока времени заняться вплотную Фроловым. Пока не будем его исключать.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Глеб Горбунов и Марлен Кветенадзе</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Похоже на то, что у Глеба с Антоном были какие-то дела по бизнесу. Надо поискать в этом направлении. 
+По Марлену тоже не понятно. Разговор этот с Антоном в машине... Пока не будем его исключать. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Глеб Горбунов и Наталья Ткачева</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Похоже на то, что у Глеба с Антоном были какие-то дела по бизнесу. Надо поискать в этом направлении. 
+И не могу на 100% сказать, что Наталья не виновна. Как-то странно, что она исчезла сразу после убийства Антона. Пока наблюдаем за ней.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Глеб Горбунов и Мария Мухина</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Похоже на то, что у Глеба с Антоном были какие-то дела по бизнесу. Надо поискать в этом направлении. 
+И Мухину рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Сергей Фролов и Марлен Кветенадзе</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Не было пока времени заняться вплотную Фроловым. Пока не будем его исключать.. 
+По Марлену тоже не понятно. Разговор этот с Антоном в машине... Пока не будем его исключать. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Сергей Фролов и Наталья Ткачева</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Не было пока времени заняться вплотную Фроловым. Пока не будем его исключать.. 
+И не могу на 100% сказать, что Наталья не виновна. Как-то странно, что она исчезла сразу после убийства Антона. Пока наблюдаем за ней.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Сергей Фролов и Мария Мухина</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Не было пока времени заняться вплотную Фроловым. Пока не будем его исключать.. 
+И Мухину рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Марлен Кветенадзе и Наталья Ткачева</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Разговор этот с Антоном в машине... Пока рано исключать Марлена.
+И не могу на 100% сказать, что Наталья не виновна. Как-то странно, что она исчезла сразу после убийства Антона. Пока наблюдаем за ней.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Марлен Кветенадзе и Мария Мухина</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Разговор этот с Антоном в машине... Пока рано исключать Марлена.
+И Мухину тоже рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Наталья Ткачева и Мария Мухина</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Не могу на 100% сказать, что Наталья не виновна. Как-то странно, что она исчезла сразу после убийства Антона. Пока наблюдаем за ней.
+И Мухину тоже рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Эпизод 4</t>
+  </si>
+  <si>
+    <t>20 предметов</t>
+  </si>
+  <si>
+    <t>АФ032020 БАКУ</t>
+  </si>
+  <si>
+    <t>Стенограмма опроса свидетеля (4 шт.)</t>
+  </si>
+  <si>
+    <t>Стенограмма опроса Сергей Фролов</t>
+  </si>
+  <si>
+    <t>Сергей поделился важной информацией относительно вечера убийства. Теперь ясно, откуда МДМА в крови Антона. Вряд ли он мог оказать достойное сопротивление в таком состоянии...
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Стенограмма опроса Нино Микеладзе</t>
+  </si>
+  <si>
+    <t>Нино Эдуардовна рассказала много интересного. Но, что-то она скрывает... Или намеренно меня старается запутать.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Стенограмма опроса Мария Мухина</t>
+  </si>
+  <si>
+    <t>Мария путается в показаниях. Как-то мне это не очень нравится. 
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Стенограмма опроса Ирина Фокина</t>
+  </si>
+  <si>
+    <t>Ирина ведет себя странно. "Тут помню, тут не помню." Как будто что-то скрывает. 
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Фото детского рисунка</t>
+  </si>
+  <si>
+    <t>Говорят, "дети не врут". Интересно, кого же Маша нарисовала. Кто этот "М"?...</t>
+  </si>
+  <si>
+    <t>Новиков прислал старые протоколы. Помогает, как может!
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Старые протоколы полиции</t>
+  </si>
+  <si>
+    <t>Прочитала их и как будто вернулась в прошлое. Вся эта компашка еще в те времена вызывала много вопросов...
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Фото с камер видеонаблюдения (2 шт.)</t>
+  </si>
+  <si>
+    <t>На фото Глеб и Марлен. Обратите внимание на время фиксации.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Фото из гаража жертвы (3 шт.)</t>
+  </si>
+  <si>
+    <t>Фото из гаража №1</t>
+  </si>
+  <si>
+    <t>Похоже на какой-то контейрер. Или шкаф с мягкими стенками.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Фото из гаража №2</t>
+  </si>
+  <si>
+    <t>Какие-то лампы, фильтры.. Странный набор.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Фото металлического ящика</t>
+  </si>
+  <si>
+    <t>Ящик у меня. Есть идеи как его открыть? Какой код? Пришлите ваш вариант, попробую открыть.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Накладная из интернет-магазина</t>
+  </si>
+  <si>
+    <t>Удобрения, лампы, фильтры... Для чего это Антону? Пока не понятно.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Обрывок договора</t>
+  </si>
+  <si>
+    <t>Судя по всему это какое-то соглашение о конфиденциальности. Но что-то ответственность очень жестокая... Наверное платят хорошо.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Еще одна страница из книги "Масти". Этот Юрий, конечно еще тот подонок.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Газетная статья (2 шт.)</t>
+  </si>
+  <si>
+    <t>Газетная статья Пир во время чумы</t>
+  </si>
+  <si>
+    <t>Мария Мухина в своем стиле! Хотя, здесь я с ней согласна. Какие гуляния в эпидемию???
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Газетная статья Я тоже, Фролов</t>
+  </si>
+  <si>
+    <t>Ну здесь все и так ясно. Ничего нового про Фролова не написано. Вайнштейн 2.0. Ох, допрыгается он.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Подарочный пакет</t>
+  </si>
+  <si>
+    <t>Иногда подарочный пакет, это просто подарочный пакет...
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Поздравительная открытка (2 шт. )</t>
+  </si>
+  <si>
+    <t>Две открытки - два разных почерка... Ирина пользуется популярностью...
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Пенал</t>
+  </si>
+  <si>
+    <t>Просто пенал. Важно, что внутри.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Чек из ломбарда</t>
+  </si>
+  <si>
+    <t>Хм... Антона продал какой-то кулон. Были нужны деньги? Или по другой причине...
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Аудиокассета</t>
+  </si>
+  <si>
+    <t>Не могу послушать, что там. Скорее всего кассета со школьных времен.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Фото А. Фокина</t>
+  </si>
+  <si>
+    <t>Антон с Натальей. Молодые и красивые. Запонка все-таки принадлежала Антону...
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Письмо со школьных времен</t>
+  </si>
+  <si>
+    <t>Ну тут все понятно. Любовь-морковь и страдания. Классика.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Брелок (2 шт)</t>
+  </si>
+  <si>
+    <t>Интересные брелоки. Телепузики эти. Помню, как они меня бесили.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Записка</t>
+  </si>
+  <si>
+    <t>Ох, тайны Антона. Очередная поклонница написала. Кто-то из старых знакомых.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>код на открытие ящика</t>
+  </si>
+  <si>
+    <t>АФ032020 КОД</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">Браво! Все получилось! Тут внутри блокнот с записями и флешка (фото по ссылкам - </t>
     </r>
     <r>
       <rPr>
@@ -1374,6 +1804,236 @@
 Кира Райнис</t>
   </si>
   <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Глебу согласна. Судя по фото с камер наблюдения (по ссылке - https://clck.ru/bUTCQ ), Глеб в момент убийства был в ресторане "У НИНО". Возможно, он имеет отношение к убийству, но сам не убивал. Можем его исключить из списка подозреваемых.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Я поговорила с администратором гостиницы, в которой останавливался Фролов (запись по ссылке - https://clck.ru/bUSKi ). 
+Она подтвердила его алиби. Фролов, конечно, тот еще подонок, но не убийца. Исключаем его. Я согласна.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Не уверена по поводу Марлена. Мама что-то юлит. Фото с камер наблюдения тоже не в его пользу. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Я не уверена, что Наталья не виновна. Пока рано утверждать на 100%. Темная лошадка.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Мухиной не согласна. Рано ее исключать. Мало информации. Что-то она скрывает...
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Глебу согласна. Судя по фото с камер наблюдения (по ссылке - https://clck.ru/bUTCQ ), Глеб в момент убийства был в ресторане "У НИНО". Возможно, он имеет отношение к убийству, но сам не убивал. Можем его исключить из списка подозреваемых.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Я поговорила с администратором гостиницы, в которой останавливался Фролов (запись по ссылке - https://clck.ru/bUSKi ). 
+Она подтвердила его алиби. Фролов, конечно, тот еще подонок, но не убийца. Исключаем его. Я согласна.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Не уверена по поводу Марлена. Мама что-то юлит. Фото с камер наблюдения тоже не в его пользу. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Я не уверена, что Наталья не виновна. Пока рано утверждать на 100%. Темная лошадка.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Мухиной не согласна. Рано ее исключать. Мало информации. Что-то она скрывает...
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлану мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Глебу согласна. Судя по фото с камер наблюдения (по ссылке - https://clck.ru/bUTCQ ), Глеб в момент убийства был в ресторане "У НИНО". Возможно, он имеет отношение к убийству, но сам не убивал. Можем его исключить из списка подозреваемых.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлану мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Я поговорила с администратором гостиницы, в которой останавливался Фролов (запись по ссылке - https://clck.ru/bUSKi ). 
+Она подтвердила его алиби. Фролов, конечно, тот еще подонок, но не убийца. Исключаем его. Я согласна.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлану мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Не уверена по поводу Марлена. Мама что-то юлит. Фото с камер наблюдения тоже не в его пользу. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлану мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Я не уверена, что Наталья не виновна. Пока рано утверждать на 100%. Темная лошадка.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлану мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Мухиной не согласна. Рано ее исключать. Мало информации. Что-то она скрывает...
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павла мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+По Глебу согласна. Судя по фото с камер наблюдения (по ссылке - https://clck.ru/bUTCQ ), Глеб в момент убийства был в ресторане "У НИНО". Возможно, он имеет отношение к убийству, но сам не убивал. Можем его исключить из списка подозреваемых.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павла мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+Я поговорила с администратором гостиницы, в которой останавливался Фролов (запись по ссылке - https://clck.ru/bUSKi ). 
+Она подтвердила его алиби. Фролов, конечно, тот еще подонок, но не убийца. Исключаем его. Я согласна.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павла мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+Не уверена по поводу Марлена. Мама что-то юлит. Фото с камер наблюдения тоже не в его пользу. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павла мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+Я не уверена, что Наталья не виновна. Пока рано утверждать на 100%. Темная лошадка.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павла мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+По Мухиной не согласна.. Рано ее исключать. Мало информации. Что-то она скрывает...
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>По Глебу согласна. Судя по фото с камер наблюдения (по ссылке - https://clck.ru/bUTCQ ), Глеб в момент убийства был в ресторане "У НИНО". Возможно, он имеет отношение к убийству, но сам не убивал. Можем его исключить из списка подозреваемых.
+И я поговорила с администратором гостиницы, в которой останавливался Фролов (запись по ссылке - https://clck.ru/bUSKi ). 
+Она подтвердила его алиби. Фролов, конечно, тот еще подонок, но не убийца. Исключаем его тоже. Я согласна.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>По Глебу согласна. Судя по фото с камер наблюдения (по ссылке - https://clck.ru/bUTCQ ), Глеб в момент убийства был в ресторане "У НИНО". Возможно, он имеет отношение к убийству, но сам не убивал. Можем его исключить из списка подозреваемых.
+Не уверена по поводу Марлена. Мама что-то юлит. Фото с камер наблюдения тоже не в его пользу. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>По Глебу согласна. Судя по фото с камер наблюдения (по ссылке - https://clck.ru/bUTCQ ), Глеб в момент убийства был в ресторане "У НИНО". Возможно, он имеет отношение к убийству, но сам не убивал. Можем его исключить из списка подозреваемых.
+Я не уверена, что Наталья не виновна. Пока рано утверждать на 100%. Темная лошадка.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>По Глебу согласна. Судя по фото с камер наблюдения (по ссылке - https://clck.ru/bUTCQ ), Глеб в момент убийства был в ресторане "У НИНО". Возможно, он имеет отношение к убийству, но сам не убивал. Можем его исключить из списка подозреваемых.
+А Мухину рано исключать. Мало информации. Что-то она скрывает...
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Я поговорила с администратором гостиницы, в которой останавливался Фролов (запись по ссылке - https://clck.ru/bUSKi ). 
+Она подтвердила его алиби. Фролов, конечно, тот еще подонок, но не убийца. Исключаем его. Я согласна.
+Не уверена по поводу Марлена. Мама что-то юлит. Фото с камер наблюдения тоже не в его пользу. 
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Я поговорила с администратором гостиницы, в которой останавливался Фролов (запись по ссылке - https://clck.ru/bUSKi ). 
+Она подтвердила его алиби. Фролов, конечно, тот еще подонок, но не убийца. Исключаем его. Я согласна.
+Не уверена, что Наталья не виновна. Пока рано утверждать на 100%. Темная лошадка.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Я поговорила с администратором гостиницы, в которой останавливался Фролов (запись по ссылке - https://clck.ru/bUSKi ). 
+Она подтвердила его алиби. Фролов, конечно, тот еще подонок, но не убийца. Исключаем его. Я согласна.
+А вот Мухину рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Не уверена по поводу Марлена. Мама что-то юлит. Фото с камер наблюдения тоже не в его пользу. 
+И про Наталья не понимаю пока. Рано утверждать на 100%. Темная лошадка.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Не уверена по поводу Марлена. Мама что-то юлит. Фото с камер наблюдения тоже не в его пользу. 
+И Мухину тоже рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>С ними пока не совсем ясно. Я не уверена, что Наталья не виновна. Пока рано утверждать на 100%. Темная лошадка.
+И Мухину тоже рано исключать. Я бы еще с ней пообщалась. Учитывая полученную информацию по поводу въезда на территорию ЖК.
+Подумайте еще.
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
     <t>Эпизод 5</t>
   </si>
   <si>
@@ -1469,19 +2129,31 @@
     <t>USB флешка</t>
   </si>
   <si>
-    <t>Надо подобрать пароль. Русские буквы вообще не подходят.
-Попробуйте поискать пароль в прошлом Антона
+    <t>Надо подобрать пароль. Русские буквы вообще не подходят. Попробуйте поискать пароль в прошлом Антона  
+С уважением, 
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Я вбила цитату из Капсулы времени Антона в поиск. Она из произведения Пушкина «Пиковая Дама». Похоже, в школе Антону нравилась Пиковая Дама...
 С уважением,
 Кира Райнис</t>
   </si>
   <si>
-    <t>Похоже в школе ему нравилось произведение Пушкина "Пиковая дама"
+    <t>Пиковая Дама. Это может быть Наталья Ткачева? Она же Пиковая Дама в их тусовке Мастей…
+Антон в последнем классе как раз с ней встречался и планировал бросить после выпускного. Новые отношения и новые пароли. 
+Но пароль видимо так и не поменял, судя по записи от 2020 года. Как и отношения.
+Попробуйте tkacheva
 С уважением,
 Кира Райнис</t>
   </si>
   <si>
-    <t>Логично предположить, что Пиковая дама - это Наталья Ткачева (tkacheva)
-С уважением,
+    <t>Странно, у меня подошло. Попробуйте еще раз - tkacheva.
+Но вот высылаю вам ссылки на то, что в файле. Три фото переписки
+1 - https://clck.ru/bmf32
+2 - https://clck.ru/bmf3G
+3 - https://clck.ru/bmf3V
+Изучите их пожалуйста.
+С уважением, 
 Кира Райнис</t>
   </si>
   <si>
@@ -1580,10 +2252,203 @@
 Мы с Машей сейчас уезжаем. Вот садимся в самолет. Надеюсь, никогда больше не вернемся сюда. Выключаю телефон.
 Прощайте
 Ирина"
-Я уже уведомила Новикова и уверена, что Мухину уже берут.
-Жаль, что Ирина уже где-то далеко и не сможет дать показания против нее.
+Я уведомила Новикова и мы поехали брать Мухину.
+Она оказала сопротивление и тяжело ранила Новикова, мне пришлось ее остановить двумя выстрелами. К сожалению раны оказались не совместимы с жизнью и она скончалась до приезда скорой.
+Жаль, что Ирина уже где-то далеко и не сможет дать более подробные показания.
 Хотя, с другой стороны, для Ирины может быть и лучше быть сейчас где-то далеко, начинать новую жизнь и забывать весь этот кошмар.
 Спасибо за ваше участие! Вы мне очень помогли!
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Марлену согласна. Судя по всему, в момент убийства Марлен был в кафе у Глеба.  Он не виновен. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Про Наталью думаю, что она не виновна в этом преступлении. Судя по всему, у Дамы Пик был не простой период в жизни. Наталья потеряла мужчину, которого любила со школы... И кто-то пытался ее подставить с этой запонкой. Она не виновна. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Алину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Мухиной вы тоже уверены? Она не виновна? А кто?
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Марлену согласна. Судя по всему, в момент убийства Марлен был в кафе у Глеба.  Он не виновен. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Про Наталью думаю, что она не виновна в этом преступлении. Судя по всему, у Дамы Пик был не простой период в жизни. Наталья потеряла мужчину, которого любила со школы... И кто-то пытался ее подставить с этой запонкой. Она не виновна. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Ирину мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Мухиной вы тоже уверены? Она не виновна? А кто?
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлану мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Марлену согласна. Судя по всему, в момент убийства Марлен был в кафе у Глеба.  Он не виновен. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлану мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+Про Наталью думаю, что она не виновна в этом преступлении. Судя по всему, у Дамы Пик был не простой период в жизни. Наталья потеряла мужчину, которого любила со школы... И кто-то пытался ее подставить с этой запонкой. Она не виновна. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Светлану мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать ее не будем, чтобы не терять время.
+По Мухиной вы тоже уверены? Она не виновна? А кто?
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павла мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+По Марлену согласна. Судя по всему, в момент убийства Марлен был в кафе у Глеба.  Он не виновен. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павла мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+Про Наталью думаю, что она не виновна в этом преступлении. Судя по всему, у Дамы Пик был не простой период в жизни. Наталья потеряла мужчину, которого любила со школы... И кто-то пытался ее подставить с этой запонкой. Она не виновна. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Павла мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+По Мухиной вы тоже уверены? Она не виновна? А кто?
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Глеба мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+По Марлену тоже согласна. Судя по всему, в момент убийства Марлен был в кафе у Глеба.  Он не виновен. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Глеба мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+Про Наталью думаю, что она не виновна в этом преступлении. Судя по всему, у Дамы Пик был не простой период в жизни. Наталья потеряла мужчину, которого любила со школы... И кто-то пытался ее подставить с этой запонкой. Она не виновна. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Глеба мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+По Мухиной вы тоже уверены? Она не виновна? А кто?
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Сергея мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+По Марлену согласна. Судя по всему, в момент убийства Марлен был в кафе у Глеба.  Он не виновен. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Сергея мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+Про Наталью думаю, что она не виновна в этом преступлении. Судя по всему, у Дамы Пик был не простой период в жизни. Наталья потеряла мужчину, которого любила со школы... И кто-то пытался ее подставить с этой запонкой. Она не виновна. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Сергея мы уже исключили из списка позодреваемых. Конечно, никогда нельзя быть уверенным на все 100%, но пока дальше разрабатывать его не будем, чтобы не терять время.
+По Мухиной вы тоже уверены? Она не виновна? А кто?
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">По Марлену согласна. Судя по всему, в момент убийства Марлен был в кафе у Глеба.  Он не виновен. </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>И про Наталью - думаю, что она не виновна в этом преступлении. Судя по всему, у Дамы Пик был не простой период в жизни. Наталья потеряла мужчину, которого любила со школы... И кто-то пытался ее подставить с этой запонкой. Она не виновна. 
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+    </r>
+  </si>
+  <si>
+    <t>По Марлену согласна. Судя по всему, в момент убийства Марлен был в кафе у Глеба.  Он не виновен. 
+По Мухиной вы тоже уверены? Она не виновна? А кто?
+Кто убийца? Есть идеи?
+Жду вашу версию.
+С уважением,
+Кира Райнис</t>
+  </si>
+  <si>
+    <t>Про Наталью думаю, что она не виновна в этом преступлении. Судя по всему, у Дамы Пик был не простой период в жизни. Наталья потеряла мужчину, которого любила со школы... И кто-то пытался ее подставить с этой запонкой. Она не виновна. 
+По Мухиной вы тоже уверены? Она не виновна? А кто?
+Кто убийца? Есть идеи?
+Жду вашу версию.
 С уважением,
 Кира Райнис</t>
   </si>
@@ -1592,7 +2457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1630,12 +2495,20 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1648,6 +2521,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1655,7 +2534,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1681,9 +2560,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1695,8 +2571,29 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1921,6 +2818,7 @@
     <col customWidth="1" min="5" max="5" width="49.0"/>
     <col customWidth="1" min="6" max="6" width="25.57"/>
     <col customWidth="1" min="7" max="7" width="39.71"/>
+    <col customWidth="1" min="8" max="8" width="29.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2332,7 +3230,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2360,7 +3258,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>25</v>
@@ -2389,7 +3287,7 @@
         <v>8.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -2399,7 +3297,7 @@
         <v>Хронологический график</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2425,16 +3323,16 @@
         <v>9.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2460,16 +3358,16 @@
         <v>10.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2495,7 +3393,7 @@
         <v>11.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -2505,7 +3403,7 @@
         <v>Фото с места убийства</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2531,16 +3429,16 @@
         <v>12.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2568,10 +3466,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2599,10 +3497,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -2630,10 +3528,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2661,10 +3559,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2692,10 +3590,10 @@
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2723,10 +3621,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2754,10 +3652,10 @@
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2785,10 +3683,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2816,10 +3714,10 @@
         <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2870,19 +3768,19 @@
         <v>13.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="1"/>
@@ -2907,22 +3805,22 @@
         <v>14.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="E31" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2946,16 +3844,16 @@
         <v>15.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -2981,16 +3879,16 @@
         <v>16.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -3016,16 +3914,16 @@
         <v>17.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -3051,16 +3949,16 @@
         <v>18.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3113,12 +4011,12 @@
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="E37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="10"/>
       <c r="G37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3144,10 +4042,10 @@
         <v>9</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3175,10 +4073,10 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -3206,10 +4104,10 @@
         <v>9</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="12" t="s">
         <v>88</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -3237,10 +4135,10 @@
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="12" t="s">
         <v>90</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -3268,10 +4166,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="12" t="s">
         <v>92</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -3299,10 +4197,10 @@
         <v>9</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="12" t="s">
         <v>94</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
@@ -3330,10 +4228,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="12" t="s">
         <v>96</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -3361,10 +4259,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="12" t="s">
         <v>98</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -3413,7 +4311,7 @@
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="5"/>
@@ -3440,7 +4338,7 @@
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
@@ -3472,7 +4370,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>10</v>
@@ -3504,16 +4402,16 @@
         <v>2.0</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D50" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -3539,13 +4437,13 @@
         <v>3.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>25</v>
@@ -3573,10 +4471,10 @@
       <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>25</v>
@@ -3604,10 +4502,10 @@
       <c r="A53" s="6"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>25</v>
@@ -3636,16 +4534,16 @@
         <v>4.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -3671,16 +4569,16 @@
         <v>5.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -3706,16 +4604,16 @@
         <v>6.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -3741,16 +4639,16 @@
         <v>7.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="5"/>
@@ -3775,13 +4673,13 @@
       <c r="A58" s="6"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -3806,13 +4704,13 @@
       <c r="A59" s="6"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -3838,19 +4736,19 @@
         <v>8.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3874,16 +4772,16 @@
         <v>9.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -3909,17 +4807,17 @@
         <v>10.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D62" s="5" t="str">
         <f t="shared" ref="D62:D63" si="2">B62</f>
         <v>Газетная статья</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
@@ -3945,20 +4843,20 @@
         <v>11.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D63" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Страница из книги</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3982,16 +4880,16 @@
         <v>12.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="7"/>
@@ -4017,16 +4915,16 @@
         <v>13.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4052,16 +4950,16 @@
         <v>14.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="5"/>
@@ -4111,13 +5009,13 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -4142,15 +5040,15 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" s="10"/>
       <c r="G69" s="5"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4173,13 +5071,13 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -4204,13 +5102,13 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>148</v>
+        <v>88</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -4235,13 +5133,13 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>149</v>
+        <v>90</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>150</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -4266,13 +5164,13 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>150</v>
+        <v>92</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -4297,13 +5195,13 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>151</v>
+        <v>94</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -4328,13 +5226,13 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>152</v>
+        <v>96</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -4359,13 +5257,13 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>153</v>
+        <v>98</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -4414,7 +5312,7 @@
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="5"/>
@@ -4441,7 +5339,7 @@
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
@@ -4473,7 +5371,7 @@
         <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>10</v>
@@ -4505,17 +5403,17 @@
         <v>2.0</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D81" s="5" t="str">
         <f t="shared" ref="D81:D82" si="3">B81</f>
         <v>Согласие на осмотр дома</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -4541,17 +5439,17 @@
         <v>3.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D82" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Фото телефона</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -4577,19 +5475,19 @@
         <v>4.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="1"/>
@@ -4614,17 +5512,17 @@
         <v>5.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D84" s="5" t="str">
         <f>B84</f>
         <v>Согласие на тест на наркотики</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -4650,13 +5548,13 @@
         <v>6.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>25</v>
@@ -4685,17 +5583,17 @@
         <v>7.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D86" s="5" t="str">
         <f t="shared" ref="D86:D89" si="4">B86</f>
         <v>Учет въезда/выезда ЖК "Дивное"</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -4724,14 +5622,14 @@
         <v>17</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Переписка с полицией</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -4757,17 +5655,17 @@
         <v>9.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D88" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Рецептурный журнал (6 листов)</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -4793,23 +5691,23 @@
         <v>10.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D89" s="5" t="str">
         <f t="shared" si="4"/>
         <v>Выписка из банка</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4833,16 +5731,16 @@
         <v>11.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -4867,19 +5765,19 @@
       <c r="A91" s="6"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -4903,17 +5801,17 @@
         <v>12.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D92" s="5" t="str">
         <f>B92</f>
         <v>Детализация телефонных звонков</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -4939,16 +5837,16 @@
         <v>13.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -4974,16 +5872,16 @@
         <v>14.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -5009,16 +5907,16 @@
         <v>15.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -5044,17 +5942,17 @@
         <v>16.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D96" s="5" t="str">
         <f t="shared" ref="D96:D101" si="5">B96</f>
         <v>Кожаный ремешок</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -5080,17 +5978,17 @@
         <v>17.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D97" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Запонка</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -5116,17 +6014,17 @@
         <v>18.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D98" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Бандана</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -5152,17 +6050,17 @@
         <v>19.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D99" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Поздравительная открытка</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -5188,17 +6086,17 @@
         <v>20.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D100" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Фото неизвестных мужчины и женщины</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -5224,17 +6122,17 @@
         <v>21.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D101" s="5" t="str">
         <f t="shared" si="5"/>
         <v>Серьга</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -5284,13 +6182,13 @@
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
@@ -5315,13 +6213,13 @@
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
@@ -5346,15 +6244,15 @@
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F105" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" s="10"/>
       <c r="G105" s="5"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -5377,15 +6275,15 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F106" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" s="10"/>
       <c r="G106" s="5"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -5408,13 +6306,13 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>208</v>
+        <v>90</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -5439,13 +6337,13 @@
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>209</v>
+        <v>92</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>210</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
@@ -5470,13 +6368,13 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>210</v>
+        <v>94</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -5501,13 +6399,13 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>211</v>
+        <v>96</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
@@ -5532,13 +6430,13 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>212</v>
+        <v>98</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
@@ -5560,11 +6458,17 @@
       <c r="W111" s="1"/>
     </row>
     <row r="112">
-      <c r="A112" s="1"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
+      <c r="C112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="1"/>
@@ -5585,13 +6489,17 @@
       <c r="W112" s="1"/>
     </row>
     <row r="113">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="1"/>
@@ -5612,13 +6520,17 @@
       <c r="W113" s="1"/>
     </row>
     <row r="114">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>219</v>
+      </c>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="1"/>
@@ -5639,18 +6551,16 @@
       <c r="W114" s="1"/>
     </row>
     <row r="115">
-      <c r="A115" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A115" s="12"/>
+      <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -5672,20 +6582,16 @@
       <c r="W115" s="1"/>
     </row>
     <row r="116">
-      <c r="A116" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="A116" s="12"/>
+      <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>218</v>
+        <v>157</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>223</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
@@ -5707,16 +6613,16 @@
       <c r="W116" s="1"/>
     </row>
     <row r="117">
-      <c r="A117" s="6"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="1"/>
       <c r="C117" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>220</v>
+        <v>157</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>225</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
@@ -5738,16 +6644,16 @@
       <c r="W117" s="1"/>
     </row>
     <row r="118">
-      <c r="A118" s="6"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>222</v>
+        <v>157</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>227</v>
       </c>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
@@ -5769,16 +6675,16 @@
       <c r="W118" s="1"/>
     </row>
     <row r="119">
-      <c r="A119" s="6"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="1"/>
       <c r="C119" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>224</v>
+        <v>157</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>229</v>
       </c>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
@@ -5800,21 +6706,16 @@
       <c r="W119" s="1"/>
     </row>
     <row r="120">
-      <c r="A120" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="A120" s="12"/>
+      <c r="B120" s="1"/>
       <c r="C120" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D120" s="5" t="str">
-        <f t="shared" ref="D120:D123" si="6">B120</f>
-        <v>Фото детского рисунка</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>226</v>
+        <v>157</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
@@ -5836,21 +6737,16 @@
       <c r="W120" s="1"/>
     </row>
     <row r="121">
-      <c r="A121" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A121" s="12"/>
+      <c r="B121" s="1"/>
       <c r="C121" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D121" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Переписка с полицией</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>227</v>
+        <v>157</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -5872,21 +6768,16 @@
       <c r="W121" s="1"/>
     </row>
     <row r="122">
-      <c r="A122" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="A122" s="12"/>
+      <c r="B122" s="1"/>
       <c r="C122" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D122" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Старые протоколы полиции</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>229</v>
+        <v>157</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -5908,21 +6799,16 @@
       <c r="W122" s="1"/>
     </row>
     <row r="123">
-      <c r="A123" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="A123" s="12"/>
+      <c r="B123" s="1"/>
       <c r="C123" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D123" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>Фото с камер видеонаблюдения (2 шт.)</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>231</v>
+        <v>157</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
@@ -5944,20 +6830,16 @@
       <c r="W123" s="1"/>
     </row>
     <row r="124">
-      <c r="A124" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="A124" s="12"/>
+      <c r="B124" s="1"/>
       <c r="C124" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>234</v>
+        <v>157</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -5979,16 +6861,16 @@
       <c r="W124" s="1"/>
     </row>
     <row r="125">
-      <c r="A125" s="6"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="1"/>
       <c r="C125" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>236</v>
+        <v>157</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
@@ -6010,16 +6892,16 @@
       <c r="W125" s="1"/>
     </row>
     <row r="126">
-      <c r="A126" s="6"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="1"/>
       <c r="C126" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>238</v>
+        <v>157</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
@@ -6041,21 +6923,16 @@
       <c r="W126" s="1"/>
     </row>
     <row r="127">
-      <c r="A127" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="A127" s="12"/>
+      <c r="B127" s="1"/>
       <c r="C127" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D127" s="5" t="str">
-        <f t="shared" ref="D127:D129" si="7">B127</f>
-        <v>Накладная из интернет-магазина</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>240</v>
+        <v>157</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -6077,21 +6954,16 @@
       <c r="W127" s="1"/>
     </row>
     <row r="128">
-      <c r="A128" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="A128" s="12"/>
+      <c r="B128" s="1"/>
       <c r="C128" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D128" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Обрывок договора</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>242</v>
+        <v>157</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
@@ -6113,21 +6985,16 @@
       <c r="W128" s="1"/>
     </row>
     <row r="129">
-      <c r="A129" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A129" s="12"/>
+      <c r="B129" s="1"/>
       <c r="C129" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D129" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Страница из книги</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>243</v>
+        <v>157</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
@@ -6149,20 +7016,16 @@
       <c r="W129" s="1"/>
     </row>
     <row r="130">
-      <c r="A130" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="A130" s="12"/>
+      <c r="B130" s="1"/>
       <c r="C130" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>246</v>
+        <v>157</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>251</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -6184,16 +7047,16 @@
       <c r="W130" s="1"/>
     </row>
     <row r="131">
-      <c r="A131" s="6"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>248</v>
+        <v>157</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -6215,21 +7078,16 @@
       <c r="W131" s="1"/>
     </row>
     <row r="132">
-      <c r="A132" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="A132" s="12"/>
+      <c r="B132" s="1"/>
       <c r="C132" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D132" s="5" t="str">
-        <f>B132</f>
-        <v>Подарочный пакет</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>250</v>
+        <v>157</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -6251,20 +7109,16 @@
       <c r="W132" s="1"/>
     </row>
     <row r="133">
-      <c r="A133" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="A133" s="12"/>
+      <c r="B133" s="1"/>
       <c r="C133" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>252</v>
+        <v>157</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
@@ -6286,21 +7140,16 @@
       <c r="W133" s="1"/>
     </row>
     <row r="134">
-      <c r="A134" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>253</v>
-      </c>
+      <c r="A134" s="12"/>
+      <c r="B134" s="1"/>
       <c r="C134" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D134" s="5" t="str">
-        <f t="shared" ref="D134:D140" si="8">B134</f>
-        <v>Пенал</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>254</v>
+        <v>157</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>259</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
@@ -6322,21 +7171,16 @@
       <c r="W134" s="1"/>
     </row>
     <row r="135">
-      <c r="A135" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="A135" s="12"/>
+      <c r="B135" s="1"/>
       <c r="C135" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D135" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Чек из ломбарда</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>261</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
@@ -6358,21 +7202,16 @@
       <c r="W135" s="1"/>
     </row>
     <row r="136">
-      <c r="A136" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="A136" s="12"/>
+      <c r="B136" s="1"/>
       <c r="C136" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D136" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Аудиокассета</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>258</v>
+        <v>157</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
@@ -6394,21 +7233,16 @@
       <c r="W136" s="1"/>
     </row>
     <row r="137">
-      <c r="A137" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="A137" s="12"/>
+      <c r="B137" s="1"/>
       <c r="C137" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D137" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Фото А. Фокина</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>260</v>
+        <v>157</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
@@ -6430,21 +7264,16 @@
       <c r="W137" s="1"/>
     </row>
     <row r="138">
-      <c r="A138" s="6">
-        <v>18.0</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="A138" s="12"/>
+      <c r="B138" s="1"/>
       <c r="C138" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D138" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Письмо со школьных времен</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>262</v>
+        <v>157</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
@@ -6466,21 +7295,16 @@
       <c r="W138" s="1"/>
     </row>
     <row r="139">
-      <c r="A139" s="6">
-        <v>19.0</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="A139" s="12"/>
+      <c r="B139" s="1"/>
       <c r="C139" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D139" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Брелок (2 шт)</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>264</v>
+        <v>157</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
@@ -6502,21 +7326,16 @@
       <c r="W139" s="1"/>
     </row>
     <row r="140">
-      <c r="A140" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="A140" s="12"/>
+      <c r="B140" s="1"/>
       <c r="C140" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D140" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>Записка</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>266</v>
+        <v>157</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
@@ -6538,20 +7357,18 @@
       <c r="W140" s="1"/>
     </row>
     <row r="141">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2" t="s">
-        <v>267</v>
-      </c>
+      <c r="A141" s="12"/>
+      <c r="B141" s="1"/>
       <c r="C141" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D141" s="7">
-        <v>420.0</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F141" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -6571,16 +7388,16 @@
       <c r="W141" s="1"/>
     </row>
     <row r="142">
-      <c r="A142" s="1"/>
+      <c r="A142" s="12"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>271</v>
+        <v>157</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
@@ -6602,11 +7419,17 @@
       <c r="W142" s="1"/>
     </row>
     <row r="143">
-      <c r="A143" s="1"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
+      <c r="C143" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>277</v>
+      </c>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
       <c r="H143" s="1"/>
@@ -6627,16 +7450,16 @@
       <c r="W143" s="1"/>
     </row>
     <row r="144">
-      <c r="A144" s="1"/>
+      <c r="A144" s="12"/>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
@@ -6658,18 +7481,18 @@
       <c r="W144" s="1"/>
     </row>
     <row r="145">
-      <c r="A145" s="1"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F145" s="7"/>
+        <v>157</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -6689,16 +7512,16 @@
       <c r="W145" s="1"/>
     </row>
     <row r="146">
-      <c r="A146" s="1"/>
+      <c r="A146" s="12"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>272</v>
+        <v>157</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
@@ -6720,16 +7543,16 @@
       <c r="W146" s="1"/>
     </row>
     <row r="147">
-      <c r="A147" s="1"/>
+      <c r="A147" s="12"/>
       <c r="B147" s="1"/>
       <c r="C147" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>273</v>
+        <v>157</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>285</v>
       </c>
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
@@ -6753,16 +7576,10 @@
     <row r="148">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F148" s="11"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -6783,17 +7600,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F149" s="11"/>
+      <c r="B149" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
       <c r="G149" s="5"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -6814,16 +7627,12 @@
     </row>
     <row r="150">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E150" s="12" t="s">
-        <v>276</v>
-      </c>
+      <c r="B150" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="5"/>
       <c r="H150" s="1"/>
@@ -6844,16 +7653,18 @@
       <c r="W150" s="1"/>
     </row>
     <row r="151">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="A151" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C151" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>277</v>
+        <v>288</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
@@ -6875,16 +7686,20 @@
       <c r="W151" s="1"/>
     </row>
     <row r="152">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="A152" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C152" s="2" t="s">
-        <v>215</v>
+        <v>288</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E152" s="12" t="s">
-        <v>278</v>
+        <v>290</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -6906,11 +7721,17 @@
       <c r="W152" s="1"/>
     </row>
     <row r="153">
-      <c r="A153" s="1"/>
+      <c r="A153" s="6"/>
       <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
+      <c r="C153" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="1"/>
@@ -6931,13 +7752,17 @@
       <c r="W153" s="1"/>
     </row>
     <row r="154">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C154" s="1"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="1"/>
@@ -6958,13 +7783,17 @@
       <c r="W154" s="1"/>
     </row>
     <row r="155">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="A155" s="6"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>297</v>
+      </c>
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
       <c r="H155" s="1"/>
@@ -6986,19 +7815,20 @@
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>8</v>
+        <v>298</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>10</v>
+        <v>288</v>
+      </c>
+      <c r="D156" s="5" t="str">
+        <f t="shared" ref="D156:D159" si="6">B156</f>
+        <v>Фото детского рисунка</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="5"/>
@@ -7021,19 +7851,20 @@
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
+      </c>
+      <c r="D157" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Переписка с полицией</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
@@ -7055,16 +7886,21 @@
       <c r="W157" s="1"/>
     </row>
     <row r="158">
-      <c r="A158" s="6"/>
-      <c r="B158" s="1"/>
+      <c r="A158" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="C158" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
+      </c>
+      <c r="D158" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>Старые протоколы полиции</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="5"/>
@@ -7087,20 +7923,20 @@
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D159" s="5" t="str">
-        <f t="shared" ref="D159:D161" si="9">B159</f>
-        <v>Выписка из банка</v>
+        <f t="shared" si="6"/>
+        <v>Фото с камер видеонаблюдения (2 шт.)</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F159" s="5"/>
       <c r="G159" s="5"/>
@@ -7123,20 +7959,19 @@
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D160" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Переписка с полицией</v>
+        <v>288</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="F160" s="5"/>
       <c r="G160" s="5"/>
@@ -7158,21 +7993,16 @@
       <c r="W160" s="1"/>
     </row>
     <row r="161">
-      <c r="A161" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A161" s="6"/>
+      <c r="B161" s="1"/>
       <c r="C161" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D161" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Характеристика ученика</v>
+        <v>288</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
@@ -7194,20 +8024,16 @@
       <c r="W161" s="1"/>
     </row>
     <row r="162">
-      <c r="A162" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="A162" s="6"/>
+      <c r="B162" s="1"/>
       <c r="C162" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
@@ -7229,16 +8055,21 @@
       <c r="W162" s="1"/>
     </row>
     <row r="163">
-      <c r="A163" s="6"/>
-      <c r="B163" s="1"/>
+      <c r="A163" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C163" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
+      </c>
+      <c r="D163" s="5" t="str">
+        <f t="shared" ref="D163:D165" si="7">B163</f>
+        <v>Накладная из интернет-магазина</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
@@ -7261,20 +8092,20 @@
     </row>
     <row r="164">
       <c r="A164" s="6">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D164" s="5" t="str">
-        <f t="shared" ref="D164:D176" si="10">B164</f>
-        <v>Фото из ломбарда</v>
+        <f t="shared" si="7"/>
+        <v>Обрывок договора</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
@@ -7297,20 +8128,20 @@
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D165" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Пост Н. Ткачевой из соцсетей</v>
+        <f t="shared" si="7"/>
+        <v>Страница из книги</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
@@ -7333,20 +8164,19 @@
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D166" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Страница из книги</v>
+        <v>288</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
@@ -7368,21 +8198,16 @@
       <c r="W166" s="1"/>
     </row>
     <row r="167">
-      <c r="A167" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>301</v>
-      </c>
+      <c r="A167" s="6"/>
+      <c r="B167" s="1"/>
       <c r="C167" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D167" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Блокнот</v>
+        <v>288</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
@@ -7405,27 +8230,24 @@
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D168" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>USB флешка</v>
+        <f>B168</f>
+        <v>Подарочный пакет</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>306</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -7444,20 +8266,19 @@
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D169" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Зип-файл</v>
+        <v>288</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
@@ -7480,20 +8301,20 @@
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D170" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Капсула времени</v>
+        <f t="shared" ref="D170:D176" si="8">B170</f>
+        <v>Пенал</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
@@ -7516,20 +8337,20 @@
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D171" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Письмо А. Фокину</v>
+        <f t="shared" si="8"/>
+        <v>Чек из ломбарда</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
@@ -7552,20 +8373,20 @@
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D172" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Разорванное фото</v>
+        <f t="shared" si="8"/>
+        <v>Аудиокассета</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F172" s="5"/>
       <c r="G172" s="5"/>
@@ -7588,20 +8409,20 @@
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>203</v>
+        <v>332</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D173" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Серьга</v>
+        <f t="shared" si="8"/>
+        <v>Фото А. Фокина</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
@@ -7624,20 +8445,20 @@
     </row>
     <row r="174">
       <c r="A174" s="6">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D174" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Колода карт</v>
+        <f t="shared" si="8"/>
+        <v>Письмо со школьных времен</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="F174" s="5"/>
       <c r="G174" s="5"/>
@@ -7660,20 +8481,20 @@
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D175" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Фото из архива</v>
+        <f t="shared" si="8"/>
+        <v>Брелок (2 шт)</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -7696,20 +8517,20 @@
     </row>
     <row r="176">
       <c r="A176" s="6">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D176" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>Газетный лист</v>
+        <f t="shared" si="8"/>
+        <v>Записка</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
@@ -7732,11 +8553,19 @@
     </row>
     <row r="177">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
+      <c r="B177" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D177" s="7">
+        <v>420.0</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" s="10"/>
       <c r="G177" s="5"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -7759,13 +8588,13 @@
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="2" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>145</v>
+        <v>344</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
@@ -7789,16 +8618,10 @@
     <row r="179">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
-      <c r="C179" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F179" s="7"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -7821,13 +8644,13 @@
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -7852,15 +8675,15 @@
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F181" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="F181" s="7"/>
       <c r="G181" s="5"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -7883,13 +8706,13 @@
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="5"/>
@@ -7914,13 +8737,13 @@
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="F183" s="5"/>
       <c r="G183" s="5"/>
@@ -7945,15 +8768,15 @@
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="F184" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="E184" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="F184" s="10"/>
       <c r="G184" s="5"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -7976,15 +8799,15 @@
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E185" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="F185" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="E185" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="F185" s="10"/>
       <c r="G185" s="5"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -8007,13 +8830,13 @@
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E186" s="12" t="s">
-        <v>326</v>
+        <v>94</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
@@ -8037,9 +8860,15 @@
     <row r="187">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
+      <c r="C187" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
       <c r="H187" s="1"/>
@@ -8062,9 +8891,15 @@
     <row r="188">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
+      <c r="C188" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>351</v>
+      </c>
       <c r="F188" s="5"/>
       <c r="G188" s="5"/>
       <c r="H188" s="1"/>
@@ -8085,11 +8920,17 @@
       <c r="W188" s="1"/>
     </row>
     <row r="189">
-      <c r="A189" s="1"/>
+      <c r="A189" s="12"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
+      <c r="C189" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="1"/>
@@ -8110,11 +8951,17 @@
       <c r="W189" s="1"/>
     </row>
     <row r="190">
-      <c r="A190" s="1"/>
+      <c r="A190" s="12"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
+      <c r="C190" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="1"/>
@@ -8135,11 +8982,17 @@
       <c r="W190" s="1"/>
     </row>
     <row r="191">
-      <c r="A191" s="1"/>
+      <c r="A191" s="12"/>
       <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
+      <c r="C191" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D191" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F191" s="5"/>
       <c r="G191" s="5"/>
       <c r="H191" s="1"/>
@@ -8160,11 +9013,17 @@
       <c r="W191" s="1"/>
     </row>
     <row r="192">
-      <c r="A192" s="1"/>
+      <c r="A192" s="12"/>
       <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
+      <c r="C192" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D192" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>352</v>
+      </c>
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="1"/>
@@ -8185,11 +9044,17 @@
       <c r="W192" s="1"/>
     </row>
     <row r="193">
-      <c r="A193" s="1"/>
+      <c r="A193" s="12"/>
       <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
+      <c r="C193" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>353</v>
+      </c>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
       <c r="H193" s="1"/>
@@ -8210,11 +9075,17 @@
       <c r="W193" s="1"/>
     </row>
     <row r="194">
-      <c r="A194" s="1"/>
+      <c r="A194" s="12"/>
       <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
+      <c r="C194" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>354</v>
+      </c>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="1"/>
@@ -8235,11 +9106,17 @@
       <c r="W194" s="1"/>
     </row>
     <row r="195">
-      <c r="A195" s="1"/>
+      <c r="A195" s="12"/>
       <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
+      <c r="C195" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D195" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>355</v>
+      </c>
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="1"/>
@@ -8260,11 +9137,17 @@
       <c r="W195" s="1"/>
     </row>
     <row r="196">
-      <c r="A196" s="1"/>
+      <c r="A196" s="12"/>
       <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
+      <c r="C196" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D196" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>356</v>
+      </c>
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="1"/>
@@ -8285,11 +9168,17 @@
       <c r="W196" s="1"/>
     </row>
     <row r="197">
-      <c r="A197" s="1"/>
+      <c r="A197" s="12"/>
       <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
+      <c r="C197" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F197" s="5"/>
       <c r="G197" s="5"/>
       <c r="H197" s="1"/>
@@ -8310,11 +9199,17 @@
       <c r="W197" s="1"/>
     </row>
     <row r="198">
-      <c r="A198" s="1"/>
+      <c r="A198" s="12"/>
       <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
+      <c r="C198" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
       <c r="H198" s="1"/>
@@ -8335,11 +9230,17 @@
       <c r="W198" s="1"/>
     </row>
     <row r="199">
-      <c r="A199" s="1"/>
+      <c r="A199" s="12"/>
       <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
+      <c r="C199" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D199" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>357</v>
+      </c>
       <c r="F199" s="5"/>
       <c r="G199" s="5"/>
       <c r="H199" s="1"/>
@@ -8360,11 +9261,17 @@
       <c r="W199" s="1"/>
     </row>
     <row r="200">
-      <c r="A200" s="1"/>
+      <c r="A200" s="12"/>
       <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
+      <c r="C200" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D200" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>358</v>
+      </c>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="1"/>
@@ -8385,11 +9292,17 @@
       <c r="W200" s="1"/>
     </row>
     <row r="201">
-      <c r="A201" s="1"/>
+      <c r="A201" s="12"/>
       <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
+      <c r="C201" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D201" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>359</v>
+      </c>
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="1"/>
@@ -8410,11 +9323,17 @@
       <c r="W201" s="1"/>
     </row>
     <row r="202">
-      <c r="A202" s="1"/>
+      <c r="A202" s="12"/>
       <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
+      <c r="C202" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D202" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>360</v>
+      </c>
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="H202" s="1"/>
@@ -8435,11 +9354,17 @@
       <c r="W202" s="1"/>
     </row>
     <row r="203">
-      <c r="A203" s="1"/>
+      <c r="A203" s="12"/>
       <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
+      <c r="C203" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>361</v>
+      </c>
       <c r="F203" s="5"/>
       <c r="G203" s="5"/>
       <c r="H203" s="1"/>
@@ -8460,11 +9385,17 @@
       <c r="W203" s="1"/>
     </row>
     <row r="204">
-      <c r="A204" s="1"/>
+      <c r="A204" s="12"/>
       <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
+      <c r="C204" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D204" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F204" s="5"/>
       <c r="G204" s="5"/>
       <c r="H204" s="1"/>
@@ -8485,11 +9416,17 @@
       <c r="W204" s="1"/>
     </row>
     <row r="205">
-      <c r="A205" s="1"/>
+      <c r="A205" s="12"/>
       <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
+      <c r="C205" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D205" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>362</v>
+      </c>
       <c r="F205" s="5"/>
       <c r="G205" s="5"/>
       <c r="H205" s="1"/>
@@ -8510,11 +9447,17 @@
       <c r="W205" s="1"/>
     </row>
     <row r="206">
-      <c r="A206" s="1"/>
+      <c r="A206" s="12"/>
       <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
+      <c r="C206" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>363</v>
+      </c>
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="1"/>
@@ -8535,11 +9478,17 @@
       <c r="W206" s="1"/>
     </row>
     <row r="207">
-      <c r="A207" s="1"/>
+      <c r="A207" s="12"/>
       <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
+      <c r="C207" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>364</v>
+      </c>
       <c r="F207" s="5"/>
       <c r="G207" s="5"/>
       <c r="H207" s="1"/>
@@ -8560,11 +9509,17 @@
       <c r="W207" s="1"/>
     </row>
     <row r="208">
-      <c r="A208" s="1"/>
+      <c r="A208" s="12"/>
       <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
+      <c r="C208" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>365</v>
+      </c>
       <c r="F208" s="5"/>
       <c r="G208" s="5"/>
       <c r="H208" s="1"/>
@@ -8585,11 +9540,17 @@
       <c r="W208" s="1"/>
     </row>
     <row r="209">
-      <c r="A209" s="1"/>
+      <c r="A209" s="12"/>
       <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
+      <c r="C209" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E209" s="14" t="s">
+        <v>366</v>
+      </c>
       <c r="F209" s="5"/>
       <c r="G209" s="5"/>
       <c r="H209" s="1"/>
@@ -8610,11 +9571,17 @@
       <c r="W209" s="1"/>
     </row>
     <row r="210">
-      <c r="A210" s="1"/>
+      <c r="A210" s="12"/>
       <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
+      <c r="C210" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D210" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
       <c r="H210" s="1"/>
@@ -8635,11 +9602,17 @@
       <c r="W210" s="1"/>
     </row>
     <row r="211">
-      <c r="A211" s="1"/>
+      <c r="A211" s="12"/>
       <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
+      <c r="C211" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>368</v>
+      </c>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="1"/>
@@ -8660,11 +9633,17 @@
       <c r="W211" s="1"/>
     </row>
     <row r="212">
-      <c r="A212" s="1"/>
+      <c r="A212" s="12"/>
       <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
+      <c r="C212" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D212" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>369</v>
+      </c>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="1"/>
@@ -8685,11 +9664,17 @@
       <c r="W212" s="1"/>
     </row>
     <row r="213">
-      <c r="A213" s="1"/>
+      <c r="A213" s="12"/>
       <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
+      <c r="C213" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D213" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>370</v>
+      </c>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
       <c r="H213" s="1"/>
@@ -8710,11 +9695,17 @@
       <c r="W213" s="1"/>
     </row>
     <row r="214">
-      <c r="A214" s="1"/>
+      <c r="A214" s="12"/>
       <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
+      <c r="C214" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D214" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E214" s="14" t="s">
+        <v>371</v>
+      </c>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
       <c r="H214" s="1"/>
@@ -8735,11 +9726,17 @@
       <c r="W214" s="1"/>
     </row>
     <row r="215">
-      <c r="A215" s="1"/>
+      <c r="A215" s="12"/>
       <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
+      <c r="C215" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>372</v>
+      </c>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
       <c r="H215" s="1"/>
@@ -8760,11 +9757,17 @@
       <c r="W215" s="1"/>
     </row>
     <row r="216">
-      <c r="A216" s="1"/>
+      <c r="A216" s="12"/>
       <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
+      <c r="C216" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D216" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>373</v>
+      </c>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="1"/>
@@ -8785,11 +9788,17 @@
       <c r="W216" s="1"/>
     </row>
     <row r="217">
-      <c r="A217" s="1"/>
+      <c r="A217" s="12"/>
       <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
+      <c r="C217" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>374</v>
+      </c>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="1"/>
@@ -8810,11 +9819,17 @@
       <c r="W217" s="1"/>
     </row>
     <row r="218">
-      <c r="A218" s="1"/>
+      <c r="A218" s="12"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
+      <c r="C218" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E218" s="14" t="s">
+        <v>375</v>
+      </c>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
       <c r="H218" s="1"/>
@@ -8835,11 +9850,17 @@
       <c r="W218" s="1"/>
     </row>
     <row r="219">
-      <c r="A219" s="1"/>
+      <c r="A219" s="12"/>
       <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
+      <c r="C219" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D219" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>376</v>
+      </c>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
       <c r="H219" s="1"/>
@@ -8860,11 +9881,17 @@
       <c r="W219" s="1"/>
     </row>
     <row r="220">
-      <c r="A220" s="1"/>
+      <c r="A220" s="12"/>
       <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
+      <c r="C220" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>377</v>
+      </c>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
       <c r="H220" s="1"/>
@@ -8885,11 +9912,17 @@
       <c r="W220" s="1"/>
     </row>
     <row r="221">
-      <c r="A221" s="1"/>
+      <c r="A221" s="12"/>
       <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
+      <c r="C221" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E221" s="14" t="s">
+        <v>378</v>
+      </c>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
       <c r="H221" s="1"/>
@@ -8910,11 +9943,17 @@
       <c r="W221" s="1"/>
     </row>
     <row r="222">
-      <c r="A222" s="1"/>
+      <c r="A222" s="12"/>
       <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
+      <c r="C222" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D222" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E222" s="14" t="s">
+        <v>379</v>
+      </c>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="1"/>
@@ -8935,11 +9974,17 @@
       <c r="W222" s="1"/>
     </row>
     <row r="223">
-      <c r="A223" s="1"/>
+      <c r="A223" s="12"/>
       <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
+      <c r="C223" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E223" s="14" t="s">
+        <v>380</v>
+      </c>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="1"/>
@@ -8960,11 +10005,17 @@
       <c r="W223" s="1"/>
     </row>
     <row r="224">
-      <c r="A224" s="1"/>
+      <c r="A224" s="12"/>
       <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
+      <c r="C224" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E224" s="14" t="s">
+        <v>381</v>
+      </c>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
       <c r="H224" s="1"/>
@@ -9011,7 +10062,9 @@
     </row>
     <row r="226">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="C226" s="1"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -9036,7 +10089,9 @@
     </row>
     <row r="227">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
+      <c r="B227" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="C227" s="1"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -9060,11 +10115,21 @@
       <c r="W227" s="1"/>
     </row>
     <row r="228">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
+      <c r="A228" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="1"/>
@@ -9085,11 +10150,21 @@
       <c r="W228" s="1"/>
     </row>
     <row r="229">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
+      <c r="A229" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
       <c r="H229" s="1"/>
@@ -9110,11 +10185,17 @@
       <c r="W229" s="1"/>
     </row>
     <row r="230">
-      <c r="A230" s="1"/>
+      <c r="A230" s="6"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
+      <c r="C230" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>389</v>
+      </c>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
       <c r="H230" s="1"/>
@@ -9135,11 +10216,22 @@
       <c r="W230" s="1"/>
     </row>
     <row r="231">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
+      <c r="A231" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D231" s="5" t="str">
+        <f t="shared" ref="D231:D233" si="9">B231</f>
+        <v>Выписка из банка</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>390</v>
+      </c>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
       <c r="H231" s="1"/>
@@ -9160,11 +10252,22 @@
       <c r="W231" s="1"/>
     </row>
     <row r="232">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
+      <c r="A232" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D232" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Переписка с полицией</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
       <c r="H232" s="1"/>
@@ -9185,11 +10288,22 @@
       <c r="W232" s="1"/>
     </row>
     <row r="233">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
+      <c r="A233" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D233" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>Характеристика ученика</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="F233" s="5"/>
       <c r="G233" s="5"/>
       <c r="H233" s="1"/>
@@ -9210,11 +10324,21 @@
       <c r="W233" s="1"/>
     </row>
     <row r="234">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
+      <c r="A234" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="F234" s="5"/>
       <c r="G234" s="5"/>
       <c r="H234" s="1"/>
@@ -9235,11 +10359,17 @@
       <c r="W234" s="1"/>
     </row>
     <row r="235">
-      <c r="A235" s="1"/>
+      <c r="A235" s="6"/>
       <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
+      <c r="C235" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
       <c r="H235" s="1"/>
@@ -9260,11 +10390,22 @@
       <c r="W235" s="1"/>
     </row>
     <row r="236">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
+      <c r="A236" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D236" s="5" t="str">
+        <f t="shared" ref="D236:D248" si="10">B236</f>
+        <v>Фото из ломбарда</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>400</v>
+      </c>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="1"/>
@@ -9285,11 +10426,22 @@
       <c r="W236" s="1"/>
     </row>
     <row r="237">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
+      <c r="A237" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D237" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Пост Н. Ткачевой из соцсетей</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>402</v>
+      </c>
       <c r="F237" s="5"/>
       <c r="G237" s="5"/>
       <c r="H237" s="1"/>
@@ -9310,11 +10462,22 @@
       <c r="W237" s="1"/>
     </row>
     <row r="238">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
+      <c r="A238" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D238" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Страница из книги</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="1"/>
@@ -9335,11 +10498,22 @@
       <c r="W238" s="1"/>
     </row>
     <row r="239">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
+      <c r="A239" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D239" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Блокнот</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="F239" s="5"/>
       <c r="G239" s="5"/>
       <c r="H239" s="1"/>
@@ -9360,14 +10534,31 @@
       <c r="W239" s="1"/>
     </row>
     <row r="240">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="1"/>
+      <c r="A240" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D240" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>USB флешка</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F240" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G240" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -9385,11 +10576,22 @@
       <c r="W240" s="1"/>
     </row>
     <row r="241">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
+      <c r="A241" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D241" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Зип-файл</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>412</v>
+      </c>
       <c r="F241" s="5"/>
       <c r="G241" s="5"/>
       <c r="H241" s="1"/>
@@ -9410,11 +10612,22 @@
       <c r="W241" s="1"/>
     </row>
     <row r="242">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
+      <c r="A242" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D242" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Капсула времени</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="F242" s="5"/>
       <c r="G242" s="5"/>
       <c r="H242" s="1"/>
@@ -9435,11 +10648,22 @@
       <c r="W242" s="1"/>
     </row>
     <row r="243">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
+      <c r="A243" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D243" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Письмо А. Фокину</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>416</v>
+      </c>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
       <c r="H243" s="1"/>
@@ -9460,11 +10684,22 @@
       <c r="W243" s="1"/>
     </row>
     <row r="244">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
+      <c r="A244" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D244" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Разорванное фото</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>418</v>
+      </c>
       <c r="F244" s="5"/>
       <c r="G244" s="5"/>
       <c r="H244" s="1"/>
@@ -9485,11 +10720,22 @@
       <c r="W244" s="1"/>
     </row>
     <row r="245">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
+      <c r="A245" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D245" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Серьга</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="F245" s="5"/>
       <c r="G245" s="5"/>
       <c r="H245" s="1"/>
@@ -9510,11 +10756,22 @@
       <c r="W245" s="1"/>
     </row>
     <row r="246">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
+      <c r="A246" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D246" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Колода карт</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>421</v>
+      </c>
       <c r="F246" s="5"/>
       <c r="G246" s="5"/>
       <c r="H246" s="1"/>
@@ -9535,11 +10792,22 @@
       <c r="W246" s="1"/>
     </row>
     <row r="247">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
+      <c r="A247" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D247" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Фото из архива</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>423</v>
+      </c>
       <c r="F247" s="5"/>
       <c r="G247" s="5"/>
       <c r="H247" s="1"/>
@@ -9560,11 +10828,22 @@
       <c r="W247" s="1"/>
     </row>
     <row r="248">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
+      <c r="A248" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D248" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Газетный лист</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>425</v>
+      </c>
       <c r="F248" s="5"/>
       <c r="G248" s="5"/>
       <c r="H248" s="1"/>
@@ -9612,9 +10891,15 @@
     <row r="250">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
+      <c r="C250" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="F250" s="5"/>
       <c r="G250" s="5"/>
       <c r="H250" s="1"/>
@@ -9637,10 +10922,16 @@
     <row r="251">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
+      <c r="C251" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F251" s="7"/>
       <c r="G251" s="5"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
@@ -9662,9 +10953,15 @@
     <row r="252">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
+      <c r="C252" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="F252" s="5"/>
       <c r="G252" s="5"/>
       <c r="H252" s="1"/>
@@ -9687,9 +10984,15 @@
     <row r="253">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
+      <c r="C253" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>346</v>
+      </c>
       <c r="F253" s="5"/>
       <c r="G253" s="5"/>
       <c r="H253" s="1"/>
@@ -9712,9 +11015,15 @@
     <row r="254">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
+      <c r="C254" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>426</v>
+      </c>
       <c r="F254" s="5"/>
       <c r="G254" s="5"/>
       <c r="H254" s="1"/>
@@ -9737,9 +11046,15 @@
     <row r="255">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
+      <c r="C255" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>427</v>
+      </c>
       <c r="F255" s="5"/>
       <c r="G255" s="5"/>
       <c r="H255" s="1"/>
@@ -9762,9 +11077,15 @@
     <row r="256">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
+      <c r="C256" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>428</v>
+      </c>
       <c r="F256" s="5"/>
       <c r="G256" s="5"/>
       <c r="H256" s="1"/>
@@ -9787,9 +11108,15 @@
     <row r="257">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
+      <c r="C257" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>429</v>
+      </c>
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
       <c r="H257" s="1"/>
@@ -9809,12 +11136,18 @@
       <c r="V257" s="1"/>
       <c r="W257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" ht="78.75" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="5"/>
-      <c r="E258" s="5"/>
+      <c r="C258" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E258" s="17" t="s">
+        <v>430</v>
+      </c>
       <c r="F258" s="5"/>
       <c r="G258" s="5"/>
       <c r="H258" s="1"/>
@@ -9835,11 +11168,17 @@
       <c r="W258" s="1"/>
     </row>
     <row r="259">
-      <c r="A259" s="1"/>
+      <c r="A259" s="12"/>
       <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
+      <c r="C259" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="1"/>
@@ -9860,11 +11199,17 @@
       <c r="W259" s="1"/>
     </row>
     <row r="260">
-      <c r="A260" s="1"/>
+      <c r="A260" s="12"/>
       <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
+      <c r="C260" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
       <c r="H260" s="1"/>
@@ -9885,11 +11230,17 @@
       <c r="W260" s="1"/>
     </row>
     <row r="261">
-      <c r="A261" s="1"/>
+      <c r="A261" s="12"/>
       <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
+      <c r="C261" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
       <c r="H261" s="1"/>
@@ -9910,11 +11261,17 @@
       <c r="W261" s="1"/>
     </row>
     <row r="262">
-      <c r="A262" s="1"/>
+      <c r="A262" s="12"/>
       <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
+      <c r="C262" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
       <c r="H262" s="1"/>
@@ -9935,11 +11292,17 @@
       <c r="W262" s="1"/>
     </row>
     <row r="263">
-      <c r="A263" s="1"/>
+      <c r="A263" s="12"/>
       <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
+      <c r="C263" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D263" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F263" s="5"/>
       <c r="G263" s="5"/>
       <c r="H263" s="1"/>
@@ -9960,11 +11323,17 @@
       <c r="W263" s="1"/>
     </row>
     <row r="264">
-      <c r="A264" s="1"/>
+      <c r="A264" s="12"/>
       <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
+      <c r="C264" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D264" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E264" s="14" t="s">
+        <v>431</v>
+      </c>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
       <c r="H264" s="1"/>
@@ -9985,11 +11354,17 @@
       <c r="W264" s="1"/>
     </row>
     <row r="265">
-      <c r="A265" s="1"/>
+      <c r="A265" s="12"/>
       <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
+      <c r="C265" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D265" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E265" s="14" t="s">
+        <v>432</v>
+      </c>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="1"/>
@@ -10010,11 +11385,17 @@
       <c r="W265" s="1"/>
     </row>
     <row r="266">
-      <c r="A266" s="1"/>
+      <c r="A266" s="12"/>
       <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
+      <c r="C266" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D266" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E266" s="14" t="s">
+        <v>433</v>
+      </c>
       <c r="F266" s="5"/>
       <c r="G266" s="5"/>
       <c r="H266" s="1"/>
@@ -10035,11 +11416,17 @@
       <c r="W266" s="1"/>
     </row>
     <row r="267">
-      <c r="A267" s="1"/>
+      <c r="A267" s="12"/>
       <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
+      <c r="C267" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F267" s="5"/>
       <c r="G267" s="5"/>
       <c r="H267" s="1"/>
@@ -10060,11 +11447,17 @@
       <c r="W267" s="1"/>
     </row>
     <row r="268">
-      <c r="A268" s="1"/>
+      <c r="A268" s="12"/>
       <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
+      <c r="C268" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F268" s="5"/>
       <c r="G268" s="5"/>
       <c r="H268" s="1"/>
@@ -10085,11 +11478,17 @@
       <c r="W268" s="1"/>
     </row>
     <row r="269">
-      <c r="A269" s="1"/>
+      <c r="A269" s="12"/>
       <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="5"/>
-      <c r="E269" s="5"/>
+      <c r="C269" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F269" s="5"/>
       <c r="G269" s="5"/>
       <c r="H269" s="1"/>
@@ -10110,11 +11509,17 @@
       <c r="W269" s="1"/>
     </row>
     <row r="270">
-      <c r="A270" s="1"/>
+      <c r="A270" s="12"/>
       <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="5"/>
-      <c r="E270" s="5"/>
+      <c r="C270" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D270" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
       <c r="H270" s="1"/>
@@ -10135,11 +11540,17 @@
       <c r="W270" s="1"/>
     </row>
     <row r="271">
-      <c r="A271" s="1"/>
+      <c r="A271" s="12"/>
       <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
+      <c r="C271" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E271" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="F271" s="5"/>
       <c r="G271" s="5"/>
       <c r="H271" s="1"/>
@@ -10160,11 +11571,17 @@
       <c r="W271" s="1"/>
     </row>
     <row r="272">
-      <c r="A272" s="1"/>
+      <c r="A272" s="12"/>
       <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
-      <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
+      <c r="C272" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D272" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E272" s="14" t="s">
+        <v>435</v>
+      </c>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
       <c r="H272" s="1"/>
@@ -10185,11 +11602,17 @@
       <c r="W272" s="1"/>
     </row>
     <row r="273">
-      <c r="A273" s="1"/>
+      <c r="A273" s="12"/>
       <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
+      <c r="C273" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D273" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E273" s="14" t="s">
+        <v>436</v>
+      </c>
       <c r="F273" s="5"/>
       <c r="G273" s="5"/>
       <c r="H273" s="1"/>
@@ -10210,11 +11633,17 @@
       <c r="W273" s="1"/>
     </row>
     <row r="274">
-      <c r="A274" s="1"/>
+      <c r="A274" s="12"/>
       <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-      <c r="D274" s="5"/>
-      <c r="E274" s="5"/>
+      <c r="C274" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D274" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F274" s="5"/>
       <c r="G274" s="5"/>
       <c r="H274" s="1"/>
@@ -10235,11 +11664,17 @@
       <c r="W274" s="1"/>
     </row>
     <row r="275">
-      <c r="A275" s="1"/>
+      <c r="A275" s="12"/>
       <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="5"/>
-      <c r="E275" s="5"/>
+      <c r="C275" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D275" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E275" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="F275" s="5"/>
       <c r="G275" s="5"/>
       <c r="H275" s="1"/>
@@ -10260,11 +11695,17 @@
       <c r="W275" s="1"/>
     </row>
     <row r="276">
-      <c r="A276" s="1"/>
+      <c r="A276" s="12"/>
       <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
+      <c r="C276" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D276" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E276" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="F276" s="5"/>
       <c r="G276" s="5"/>
       <c r="H276" s="1"/>
@@ -10285,11 +11726,17 @@
       <c r="W276" s="1"/>
     </row>
     <row r="277">
-      <c r="A277" s="1"/>
+      <c r="A277" s="12"/>
       <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
+      <c r="C277" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D277" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E277" s="14" t="s">
+        <v>437</v>
+      </c>
       <c r="F277" s="5"/>
       <c r="G277" s="5"/>
       <c r="H277" s="1"/>
@@ -10310,11 +11757,17 @@
       <c r="W277" s="1"/>
     </row>
     <row r="278">
-      <c r="A278" s="1"/>
+      <c r="A278" s="12"/>
       <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
-      <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
+      <c r="C278" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E278" s="14" t="s">
+        <v>438</v>
+      </c>
       <c r="F278" s="5"/>
       <c r="G278" s="5"/>
       <c r="H278" s="1"/>
@@ -10335,11 +11788,17 @@
       <c r="W278" s="1"/>
     </row>
     <row r="279">
-      <c r="A279" s="1"/>
+      <c r="A279" s="12"/>
       <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
-      <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
+      <c r="C279" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D279" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E279" s="14" t="s">
+        <v>439</v>
+      </c>
       <c r="F279" s="5"/>
       <c r="G279" s="5"/>
       <c r="H279" s="1"/>
@@ -10360,11 +11819,17 @@
       <c r="W279" s="1"/>
     </row>
     <row r="280">
-      <c r="A280" s="1"/>
+      <c r="A280" s="12"/>
       <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
-      <c r="D280" s="5"/>
-      <c r="E280" s="5"/>
+      <c r="C280" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D280" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E280" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="F280" s="5"/>
       <c r="G280" s="5"/>
       <c r="H280" s="1"/>
@@ -10385,11 +11850,17 @@
       <c r="W280" s="1"/>
     </row>
     <row r="281">
-      <c r="A281" s="1"/>
+      <c r="A281" s="12"/>
       <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
+      <c r="C281" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E281" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="F281" s="5"/>
       <c r="G281" s="5"/>
       <c r="H281" s="1"/>
@@ -10410,11 +11881,17 @@
       <c r="W281" s="1"/>
     </row>
     <row r="282">
-      <c r="A282" s="1"/>
+      <c r="A282" s="12"/>
       <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="5"/>
-      <c r="E282" s="5"/>
+      <c r="C282" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D282" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E282" s="14" t="s">
+        <v>440</v>
+      </c>
       <c r="F282" s="5"/>
       <c r="G282" s="5"/>
       <c r="H282" s="1"/>
@@ -10435,11 +11912,17 @@
       <c r="W282" s="1"/>
     </row>
     <row r="283">
-      <c r="A283" s="1"/>
+      <c r="A283" s="12"/>
       <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="5"/>
-      <c r="E283" s="5"/>
+      <c r="C283" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D283" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E283" s="14" t="s">
+        <v>441</v>
+      </c>
       <c r="F283" s="5"/>
       <c r="G283" s="5"/>
       <c r="H283" s="1"/>
@@ -10460,11 +11943,17 @@
       <c r="W283" s="1"/>
     </row>
     <row r="284">
-      <c r="A284" s="1"/>
+      <c r="A284" s="12"/>
       <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="5"/>
-      <c r="E284" s="5"/>
+      <c r="C284" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D284" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E284" s="14" t="s">
+        <v>442</v>
+      </c>
       <c r="F284" s="5"/>
       <c r="G284" s="5"/>
       <c r="H284" s="1"/>
@@ -10485,11 +11974,17 @@
       <c r="W284" s="1"/>
     </row>
     <row r="285">
-      <c r="A285" s="1"/>
+      <c r="A285" s="12"/>
       <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="5"/>
-      <c r="E285" s="5"/>
+      <c r="C285" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D285" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E285" s="18" t="s">
+        <v>215</v>
+      </c>
       <c r="F285" s="5"/>
       <c r="G285" s="5"/>
       <c r="H285" s="1"/>
@@ -10510,11 +12005,17 @@
       <c r="W285" s="1"/>
     </row>
     <row r="286">
-      <c r="A286" s="1"/>
+      <c r="A286" s="12"/>
       <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="5"/>
-      <c r="E286" s="5"/>
+      <c r="C286" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D286" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E286" s="19" t="s">
+        <v>443</v>
+      </c>
       <c r="F286" s="5"/>
       <c r="G286" s="5"/>
       <c r="H286" s="1"/>
@@ -10535,11 +12036,17 @@
       <c r="W286" s="1"/>
     </row>
     <row r="287">
-      <c r="A287" s="1"/>
+      <c r="A287" s="12"/>
       <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="5"/>
-      <c r="E287" s="5"/>
+      <c r="C287" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D287" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E287" s="19" t="s">
+        <v>444</v>
+      </c>
       <c r="F287" s="5"/>
       <c r="G287" s="5"/>
       <c r="H287" s="1"/>
@@ -10560,11 +12067,17 @@
       <c r="W287" s="1"/>
     </row>
     <row r="288">
-      <c r="A288" s="1"/>
+      <c r="A288" s="12"/>
       <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
-      <c r="D288" s="5"/>
-      <c r="E288" s="5"/>
+      <c r="C288" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D288" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E288" s="19" t="s">
+        <v>445</v>
+      </c>
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
       <c r="H288" s="1"/>
@@ -10585,11 +12098,17 @@
       <c r="W288" s="1"/>
     </row>
     <row r="289">
-      <c r="A289" s="1"/>
+      <c r="A289" s="12"/>
       <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
-      <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
+      <c r="C289" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D289" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E289" s="19" t="s">
+        <v>446</v>
+      </c>
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
       <c r="H289" s="1"/>
@@ -10610,11 +12129,17 @@
       <c r="W289" s="1"/>
     </row>
     <row r="290">
-      <c r="A290" s="1"/>
+      <c r="A290" s="12"/>
       <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
-      <c r="D290" s="5"/>
-      <c r="E290" s="5"/>
+      <c r="C290" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D290" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E290" s="19" t="s">
+        <v>447</v>
+      </c>
       <c r="F290" s="5"/>
       <c r="G290" s="5"/>
       <c r="H290" s="1"/>
@@ -10635,11 +12160,17 @@
       <c r="W290" s="1"/>
     </row>
     <row r="291">
-      <c r="A291" s="1"/>
+      <c r="A291" s="12"/>
       <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="5"/>
-      <c r="E291" s="5"/>
+      <c r="C291" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D291" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E291" s="19" t="s">
+        <v>448</v>
+      </c>
       <c r="F291" s="5"/>
       <c r="G291" s="5"/>
       <c r="H291" s="1"/>
@@ -10660,11 +12191,17 @@
       <c r="W291" s="1"/>
     </row>
     <row r="292">
-      <c r="A292" s="1"/>
+      <c r="A292" s="12"/>
       <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
-      <c r="D292" s="5"/>
-      <c r="E292" s="5"/>
+      <c r="C292" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D292" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E292" s="14" t="s">
+        <v>449</v>
+      </c>
       <c r="F292" s="5"/>
       <c r="G292" s="5"/>
       <c r="H292" s="1"/>
@@ -10685,11 +12222,17 @@
       <c r="W292" s="1"/>
     </row>
     <row r="293">
-      <c r="A293" s="1"/>
+      <c r="A293" s="12"/>
       <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
-      <c r="D293" s="5"/>
-      <c r="E293" s="5"/>
+      <c r="C293" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D293" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E293" s="14" t="s">
+        <v>450</v>
+      </c>
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
       <c r="H293" s="1"/>
@@ -10710,11 +12253,17 @@
       <c r="W293" s="1"/>
     </row>
     <row r="294">
-      <c r="A294" s="1"/>
+      <c r="A294" s="12"/>
       <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
-      <c r="D294" s="5"/>
-      <c r="E294" s="5"/>
+      <c r="C294" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D294" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E294" s="14" t="s">
+        <v>451</v>
+      </c>
       <c r="F294" s="5"/>
       <c r="G294" s="5"/>
       <c r="H294" s="1"/>
@@ -29959,16 +31508,1818 @@
       <c r="V1063" s="1"/>
       <c r="W1063" s="1"/>
     </row>
+    <row r="1064">
+      <c r="A1064" s="1"/>
+      <c r="B1064" s="1"/>
+      <c r="C1064" s="1"/>
+      <c r="D1064" s="5"/>
+      <c r="E1064" s="5"/>
+      <c r="F1064" s="5"/>
+      <c r="G1064" s="5"/>
+      <c r="H1064" s="1"/>
+      <c r="I1064" s="1"/>
+      <c r="J1064" s="1"/>
+      <c r="K1064" s="1"/>
+      <c r="L1064" s="1"/>
+      <c r="M1064" s="1"/>
+      <c r="N1064" s="1"/>
+      <c r="O1064" s="1"/>
+      <c r="P1064" s="1"/>
+      <c r="Q1064" s="1"/>
+      <c r="R1064" s="1"/>
+      <c r="S1064" s="1"/>
+      <c r="T1064" s="1"/>
+      <c r="U1064" s="1"/>
+      <c r="V1064" s="1"/>
+      <c r="W1064" s="1"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1"/>
+      <c r="B1065" s="1"/>
+      <c r="C1065" s="1"/>
+      <c r="D1065" s="5"/>
+      <c r="E1065" s="5"/>
+      <c r="F1065" s="5"/>
+      <c r="G1065" s="5"/>
+      <c r="H1065" s="1"/>
+      <c r="I1065" s="1"/>
+      <c r="J1065" s="1"/>
+      <c r="K1065" s="1"/>
+      <c r="L1065" s="1"/>
+      <c r="M1065" s="1"/>
+      <c r="N1065" s="1"/>
+      <c r="O1065" s="1"/>
+      <c r="P1065" s="1"/>
+      <c r="Q1065" s="1"/>
+      <c r="R1065" s="1"/>
+      <c r="S1065" s="1"/>
+      <c r="T1065" s="1"/>
+      <c r="U1065" s="1"/>
+      <c r="V1065" s="1"/>
+      <c r="W1065" s="1"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1"/>
+      <c r="B1066" s="1"/>
+      <c r="C1066" s="1"/>
+      <c r="D1066" s="5"/>
+      <c r="E1066" s="5"/>
+      <c r="F1066" s="5"/>
+      <c r="G1066" s="5"/>
+      <c r="H1066" s="1"/>
+      <c r="I1066" s="1"/>
+      <c r="J1066" s="1"/>
+      <c r="K1066" s="1"/>
+      <c r="L1066" s="1"/>
+      <c r="M1066" s="1"/>
+      <c r="N1066" s="1"/>
+      <c r="O1066" s="1"/>
+      <c r="P1066" s="1"/>
+      <c r="Q1066" s="1"/>
+      <c r="R1066" s="1"/>
+      <c r="S1066" s="1"/>
+      <c r="T1066" s="1"/>
+      <c r="U1066" s="1"/>
+      <c r="V1066" s="1"/>
+      <c r="W1066" s="1"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1"/>
+      <c r="B1067" s="1"/>
+      <c r="C1067" s="1"/>
+      <c r="D1067" s="5"/>
+      <c r="E1067" s="5"/>
+      <c r="F1067" s="5"/>
+      <c r="G1067" s="5"/>
+      <c r="H1067" s="1"/>
+      <c r="I1067" s="1"/>
+      <c r="J1067" s="1"/>
+      <c r="K1067" s="1"/>
+      <c r="L1067" s="1"/>
+      <c r="M1067" s="1"/>
+      <c r="N1067" s="1"/>
+      <c r="O1067" s="1"/>
+      <c r="P1067" s="1"/>
+      <c r="Q1067" s="1"/>
+      <c r="R1067" s="1"/>
+      <c r="S1067" s="1"/>
+      <c r="T1067" s="1"/>
+      <c r="U1067" s="1"/>
+      <c r="V1067" s="1"/>
+      <c r="W1067" s="1"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1"/>
+      <c r="B1068" s="1"/>
+      <c r="C1068" s="1"/>
+      <c r="D1068" s="5"/>
+      <c r="E1068" s="5"/>
+      <c r="F1068" s="5"/>
+      <c r="G1068" s="5"/>
+      <c r="H1068" s="1"/>
+      <c r="I1068" s="1"/>
+      <c r="J1068" s="1"/>
+      <c r="K1068" s="1"/>
+      <c r="L1068" s="1"/>
+      <c r="M1068" s="1"/>
+      <c r="N1068" s="1"/>
+      <c r="O1068" s="1"/>
+      <c r="P1068" s="1"/>
+      <c r="Q1068" s="1"/>
+      <c r="R1068" s="1"/>
+      <c r="S1068" s="1"/>
+      <c r="T1068" s="1"/>
+      <c r="U1068" s="1"/>
+      <c r="V1068" s="1"/>
+      <c r="W1068" s="1"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1"/>
+      <c r="B1069" s="1"/>
+      <c r="C1069" s="1"/>
+      <c r="D1069" s="5"/>
+      <c r="E1069" s="5"/>
+      <c r="F1069" s="5"/>
+      <c r="G1069" s="5"/>
+      <c r="H1069" s="1"/>
+      <c r="I1069" s="1"/>
+      <c r="J1069" s="1"/>
+      <c r="K1069" s="1"/>
+      <c r="L1069" s="1"/>
+      <c r="M1069" s="1"/>
+      <c r="N1069" s="1"/>
+      <c r="O1069" s="1"/>
+      <c r="P1069" s="1"/>
+      <c r="Q1069" s="1"/>
+      <c r="R1069" s="1"/>
+      <c r="S1069" s="1"/>
+      <c r="T1069" s="1"/>
+      <c r="U1069" s="1"/>
+      <c r="V1069" s="1"/>
+      <c r="W1069" s="1"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1"/>
+      <c r="B1070" s="1"/>
+      <c r="C1070" s="1"/>
+      <c r="D1070" s="5"/>
+      <c r="E1070" s="5"/>
+      <c r="F1070" s="5"/>
+      <c r="G1070" s="5"/>
+      <c r="H1070" s="1"/>
+      <c r="I1070" s="1"/>
+      <c r="J1070" s="1"/>
+      <c r="K1070" s="1"/>
+      <c r="L1070" s="1"/>
+      <c r="M1070" s="1"/>
+      <c r="N1070" s="1"/>
+      <c r="O1070" s="1"/>
+      <c r="P1070" s="1"/>
+      <c r="Q1070" s="1"/>
+      <c r="R1070" s="1"/>
+      <c r="S1070" s="1"/>
+      <c r="T1070" s="1"/>
+      <c r="U1070" s="1"/>
+      <c r="V1070" s="1"/>
+      <c r="W1070" s="1"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1"/>
+      <c r="B1071" s="1"/>
+      <c r="C1071" s="1"/>
+      <c r="D1071" s="5"/>
+      <c r="E1071" s="5"/>
+      <c r="F1071" s="5"/>
+      <c r="G1071" s="5"/>
+      <c r="H1071" s="1"/>
+      <c r="I1071" s="1"/>
+      <c r="J1071" s="1"/>
+      <c r="K1071" s="1"/>
+      <c r="L1071" s="1"/>
+      <c r="M1071" s="1"/>
+      <c r="N1071" s="1"/>
+      <c r="O1071" s="1"/>
+      <c r="P1071" s="1"/>
+      <c r="Q1071" s="1"/>
+      <c r="R1071" s="1"/>
+      <c r="S1071" s="1"/>
+      <c r="T1071" s="1"/>
+      <c r="U1071" s="1"/>
+      <c r="V1071" s="1"/>
+      <c r="W1071" s="1"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1"/>
+      <c r="B1072" s="1"/>
+      <c r="C1072" s="1"/>
+      <c r="D1072" s="5"/>
+      <c r="E1072" s="5"/>
+      <c r="F1072" s="5"/>
+      <c r="G1072" s="5"/>
+      <c r="H1072" s="1"/>
+      <c r="I1072" s="1"/>
+      <c r="J1072" s="1"/>
+      <c r="K1072" s="1"/>
+      <c r="L1072" s="1"/>
+      <c r="M1072" s="1"/>
+      <c r="N1072" s="1"/>
+      <c r="O1072" s="1"/>
+      <c r="P1072" s="1"/>
+      <c r="Q1072" s="1"/>
+      <c r="R1072" s="1"/>
+      <c r="S1072" s="1"/>
+      <c r="T1072" s="1"/>
+      <c r="U1072" s="1"/>
+      <c r="V1072" s="1"/>
+      <c r="W1072" s="1"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1"/>
+      <c r="B1073" s="1"/>
+      <c r="C1073" s="1"/>
+      <c r="D1073" s="5"/>
+      <c r="E1073" s="5"/>
+      <c r="F1073" s="5"/>
+      <c r="G1073" s="5"/>
+      <c r="H1073" s="1"/>
+      <c r="I1073" s="1"/>
+      <c r="J1073" s="1"/>
+      <c r="K1073" s="1"/>
+      <c r="L1073" s="1"/>
+      <c r="M1073" s="1"/>
+      <c r="N1073" s="1"/>
+      <c r="O1073" s="1"/>
+      <c r="P1073" s="1"/>
+      <c r="Q1073" s="1"/>
+      <c r="R1073" s="1"/>
+      <c r="S1073" s="1"/>
+      <c r="T1073" s="1"/>
+      <c r="U1073" s="1"/>
+      <c r="V1073" s="1"/>
+      <c r="W1073" s="1"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1"/>
+      <c r="B1074" s="1"/>
+      <c r="C1074" s="1"/>
+      <c r="D1074" s="5"/>
+      <c r="E1074" s="5"/>
+      <c r="F1074" s="5"/>
+      <c r="G1074" s="5"/>
+      <c r="H1074" s="1"/>
+      <c r="I1074" s="1"/>
+      <c r="J1074" s="1"/>
+      <c r="K1074" s="1"/>
+      <c r="L1074" s="1"/>
+      <c r="M1074" s="1"/>
+      <c r="N1074" s="1"/>
+      <c r="O1074" s="1"/>
+      <c r="P1074" s="1"/>
+      <c r="Q1074" s="1"/>
+      <c r="R1074" s="1"/>
+      <c r="S1074" s="1"/>
+      <c r="T1074" s="1"/>
+      <c r="U1074" s="1"/>
+      <c r="V1074" s="1"/>
+      <c r="W1074" s="1"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1"/>
+      <c r="B1075" s="1"/>
+      <c r="C1075" s="1"/>
+      <c r="D1075" s="5"/>
+      <c r="E1075" s="5"/>
+      <c r="F1075" s="5"/>
+      <c r="G1075" s="5"/>
+      <c r="H1075" s="1"/>
+      <c r="I1075" s="1"/>
+      <c r="J1075" s="1"/>
+      <c r="K1075" s="1"/>
+      <c r="L1075" s="1"/>
+      <c r="M1075" s="1"/>
+      <c r="N1075" s="1"/>
+      <c r="O1075" s="1"/>
+      <c r="P1075" s="1"/>
+      <c r="Q1075" s="1"/>
+      <c r="R1075" s="1"/>
+      <c r="S1075" s="1"/>
+      <c r="T1075" s="1"/>
+      <c r="U1075" s="1"/>
+      <c r="V1075" s="1"/>
+      <c r="W1075" s="1"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1"/>
+      <c r="B1076" s="1"/>
+      <c r="C1076" s="1"/>
+      <c r="D1076" s="5"/>
+      <c r="E1076" s="5"/>
+      <c r="F1076" s="5"/>
+      <c r="G1076" s="5"/>
+      <c r="H1076" s="1"/>
+      <c r="I1076" s="1"/>
+      <c r="J1076" s="1"/>
+      <c r="K1076" s="1"/>
+      <c r="L1076" s="1"/>
+      <c r="M1076" s="1"/>
+      <c r="N1076" s="1"/>
+      <c r="O1076" s="1"/>
+      <c r="P1076" s="1"/>
+      <c r="Q1076" s="1"/>
+      <c r="R1076" s="1"/>
+      <c r="S1076" s="1"/>
+      <c r="T1076" s="1"/>
+      <c r="U1076" s="1"/>
+      <c r="V1076" s="1"/>
+      <c r="W1076" s="1"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1"/>
+      <c r="B1077" s="1"/>
+      <c r="C1077" s="1"/>
+      <c r="D1077" s="5"/>
+      <c r="E1077" s="5"/>
+      <c r="F1077" s="5"/>
+      <c r="G1077" s="5"/>
+      <c r="H1077" s="1"/>
+      <c r="I1077" s="1"/>
+      <c r="J1077" s="1"/>
+      <c r="K1077" s="1"/>
+      <c r="L1077" s="1"/>
+      <c r="M1077" s="1"/>
+      <c r="N1077" s="1"/>
+      <c r="O1077" s="1"/>
+      <c r="P1077" s="1"/>
+      <c r="Q1077" s="1"/>
+      <c r="R1077" s="1"/>
+      <c r="S1077" s="1"/>
+      <c r="T1077" s="1"/>
+      <c r="U1077" s="1"/>
+      <c r="V1077" s="1"/>
+      <c r="W1077" s="1"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1"/>
+      <c r="B1078" s="1"/>
+      <c r="C1078" s="1"/>
+      <c r="D1078" s="5"/>
+      <c r="E1078" s="5"/>
+      <c r="F1078" s="5"/>
+      <c r="G1078" s="5"/>
+      <c r="H1078" s="1"/>
+      <c r="I1078" s="1"/>
+      <c r="J1078" s="1"/>
+      <c r="K1078" s="1"/>
+      <c r="L1078" s="1"/>
+      <c r="M1078" s="1"/>
+      <c r="N1078" s="1"/>
+      <c r="O1078" s="1"/>
+      <c r="P1078" s="1"/>
+      <c r="Q1078" s="1"/>
+      <c r="R1078" s="1"/>
+      <c r="S1078" s="1"/>
+      <c r="T1078" s="1"/>
+      <c r="U1078" s="1"/>
+      <c r="V1078" s="1"/>
+      <c r="W1078" s="1"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1"/>
+      <c r="B1079" s="1"/>
+      <c r="C1079" s="1"/>
+      <c r="D1079" s="5"/>
+      <c r="E1079" s="5"/>
+      <c r="F1079" s="5"/>
+      <c r="G1079" s="5"/>
+      <c r="H1079" s="1"/>
+      <c r="I1079" s="1"/>
+      <c r="J1079" s="1"/>
+      <c r="K1079" s="1"/>
+      <c r="L1079" s="1"/>
+      <c r="M1079" s="1"/>
+      <c r="N1079" s="1"/>
+      <c r="O1079" s="1"/>
+      <c r="P1079" s="1"/>
+      <c r="Q1079" s="1"/>
+      <c r="R1079" s="1"/>
+      <c r="S1079" s="1"/>
+      <c r="T1079" s="1"/>
+      <c r="U1079" s="1"/>
+      <c r="V1079" s="1"/>
+      <c r="W1079" s="1"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1"/>
+      <c r="B1080" s="1"/>
+      <c r="C1080" s="1"/>
+      <c r="D1080" s="5"/>
+      <c r="E1080" s="5"/>
+      <c r="F1080" s="5"/>
+      <c r="G1080" s="5"/>
+      <c r="H1080" s="1"/>
+      <c r="I1080" s="1"/>
+      <c r="J1080" s="1"/>
+      <c r="K1080" s="1"/>
+      <c r="L1080" s="1"/>
+      <c r="M1080" s="1"/>
+      <c r="N1080" s="1"/>
+      <c r="O1080" s="1"/>
+      <c r="P1080" s="1"/>
+      <c r="Q1080" s="1"/>
+      <c r="R1080" s="1"/>
+      <c r="S1080" s="1"/>
+      <c r="T1080" s="1"/>
+      <c r="U1080" s="1"/>
+      <c r="V1080" s="1"/>
+      <c r="W1080" s="1"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1"/>
+      <c r="B1081" s="1"/>
+      <c r="C1081" s="1"/>
+      <c r="D1081" s="5"/>
+      <c r="E1081" s="5"/>
+      <c r="F1081" s="5"/>
+      <c r="G1081" s="5"/>
+      <c r="H1081" s="1"/>
+      <c r="I1081" s="1"/>
+      <c r="J1081" s="1"/>
+      <c r="K1081" s="1"/>
+      <c r="L1081" s="1"/>
+      <c r="M1081" s="1"/>
+      <c r="N1081" s="1"/>
+      <c r="O1081" s="1"/>
+      <c r="P1081" s="1"/>
+      <c r="Q1081" s="1"/>
+      <c r="R1081" s="1"/>
+      <c r="S1081" s="1"/>
+      <c r="T1081" s="1"/>
+      <c r="U1081" s="1"/>
+      <c r="V1081" s="1"/>
+      <c r="W1081" s="1"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1"/>
+      <c r="B1082" s="1"/>
+      <c r="C1082" s="1"/>
+      <c r="D1082" s="5"/>
+      <c r="E1082" s="5"/>
+      <c r="F1082" s="5"/>
+      <c r="G1082" s="5"/>
+      <c r="H1082" s="1"/>
+      <c r="I1082" s="1"/>
+      <c r="J1082" s="1"/>
+      <c r="K1082" s="1"/>
+      <c r="L1082" s="1"/>
+      <c r="M1082" s="1"/>
+      <c r="N1082" s="1"/>
+      <c r="O1082" s="1"/>
+      <c r="P1082" s="1"/>
+      <c r="Q1082" s="1"/>
+      <c r="R1082" s="1"/>
+      <c r="S1082" s="1"/>
+      <c r="T1082" s="1"/>
+      <c r="U1082" s="1"/>
+      <c r="V1082" s="1"/>
+      <c r="W1082" s="1"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1"/>
+      <c r="B1083" s="1"/>
+      <c r="C1083" s="1"/>
+      <c r="D1083" s="5"/>
+      <c r="E1083" s="5"/>
+      <c r="F1083" s="5"/>
+      <c r="G1083" s="5"/>
+      <c r="H1083" s="1"/>
+      <c r="I1083" s="1"/>
+      <c r="J1083" s="1"/>
+      <c r="K1083" s="1"/>
+      <c r="L1083" s="1"/>
+      <c r="M1083" s="1"/>
+      <c r="N1083" s="1"/>
+      <c r="O1083" s="1"/>
+      <c r="P1083" s="1"/>
+      <c r="Q1083" s="1"/>
+      <c r="R1083" s="1"/>
+      <c r="S1083" s="1"/>
+      <c r="T1083" s="1"/>
+      <c r="U1083" s="1"/>
+      <c r="V1083" s="1"/>
+      <c r="W1083" s="1"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1"/>
+      <c r="B1084" s="1"/>
+      <c r="C1084" s="1"/>
+      <c r="D1084" s="5"/>
+      <c r="E1084" s="5"/>
+      <c r="F1084" s="5"/>
+      <c r="G1084" s="5"/>
+      <c r="H1084" s="1"/>
+      <c r="I1084" s="1"/>
+      <c r="J1084" s="1"/>
+      <c r="K1084" s="1"/>
+      <c r="L1084" s="1"/>
+      <c r="M1084" s="1"/>
+      <c r="N1084" s="1"/>
+      <c r="O1084" s="1"/>
+      <c r="P1084" s="1"/>
+      <c r="Q1084" s="1"/>
+      <c r="R1084" s="1"/>
+      <c r="S1084" s="1"/>
+      <c r="T1084" s="1"/>
+      <c r="U1084" s="1"/>
+      <c r="V1084" s="1"/>
+      <c r="W1084" s="1"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1"/>
+      <c r="B1085" s="1"/>
+      <c r="C1085" s="1"/>
+      <c r="D1085" s="5"/>
+      <c r="E1085" s="5"/>
+      <c r="F1085" s="5"/>
+      <c r="G1085" s="5"/>
+      <c r="H1085" s="1"/>
+      <c r="I1085" s="1"/>
+      <c r="J1085" s="1"/>
+      <c r="K1085" s="1"/>
+      <c r="L1085" s="1"/>
+      <c r="M1085" s="1"/>
+      <c r="N1085" s="1"/>
+      <c r="O1085" s="1"/>
+      <c r="P1085" s="1"/>
+      <c r="Q1085" s="1"/>
+      <c r="R1085" s="1"/>
+      <c r="S1085" s="1"/>
+      <c r="T1085" s="1"/>
+      <c r="U1085" s="1"/>
+      <c r="V1085" s="1"/>
+      <c r="W1085" s="1"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1"/>
+      <c r="B1086" s="1"/>
+      <c r="C1086" s="1"/>
+      <c r="D1086" s="5"/>
+      <c r="E1086" s="5"/>
+      <c r="F1086" s="5"/>
+      <c r="G1086" s="5"/>
+      <c r="H1086" s="1"/>
+      <c r="I1086" s="1"/>
+      <c r="J1086" s="1"/>
+      <c r="K1086" s="1"/>
+      <c r="L1086" s="1"/>
+      <c r="M1086" s="1"/>
+      <c r="N1086" s="1"/>
+      <c r="O1086" s="1"/>
+      <c r="P1086" s="1"/>
+      <c r="Q1086" s="1"/>
+      <c r="R1086" s="1"/>
+      <c r="S1086" s="1"/>
+      <c r="T1086" s="1"/>
+      <c r="U1086" s="1"/>
+      <c r="V1086" s="1"/>
+      <c r="W1086" s="1"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1"/>
+      <c r="B1087" s="1"/>
+      <c r="C1087" s="1"/>
+      <c r="D1087" s="5"/>
+      <c r="E1087" s="5"/>
+      <c r="F1087" s="5"/>
+      <c r="G1087" s="5"/>
+      <c r="H1087" s="1"/>
+      <c r="I1087" s="1"/>
+      <c r="J1087" s="1"/>
+      <c r="K1087" s="1"/>
+      <c r="L1087" s="1"/>
+      <c r="M1087" s="1"/>
+      <c r="N1087" s="1"/>
+      <c r="O1087" s="1"/>
+      <c r="P1087" s="1"/>
+      <c r="Q1087" s="1"/>
+      <c r="R1087" s="1"/>
+      <c r="S1087" s="1"/>
+      <c r="T1087" s="1"/>
+      <c r="U1087" s="1"/>
+      <c r="V1087" s="1"/>
+      <c r="W1087" s="1"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1"/>
+      <c r="B1088" s="1"/>
+      <c r="C1088" s="1"/>
+      <c r="D1088" s="5"/>
+      <c r="E1088" s="5"/>
+      <c r="F1088" s="5"/>
+      <c r="G1088" s="5"/>
+      <c r="H1088" s="1"/>
+      <c r="I1088" s="1"/>
+      <c r="J1088" s="1"/>
+      <c r="K1088" s="1"/>
+      <c r="L1088" s="1"/>
+      <c r="M1088" s="1"/>
+      <c r="N1088" s="1"/>
+      <c r="O1088" s="1"/>
+      <c r="P1088" s="1"/>
+      <c r="Q1088" s="1"/>
+      <c r="R1088" s="1"/>
+      <c r="S1088" s="1"/>
+      <c r="T1088" s="1"/>
+      <c r="U1088" s="1"/>
+      <c r="V1088" s="1"/>
+      <c r="W1088" s="1"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1"/>
+      <c r="B1089" s="1"/>
+      <c r="C1089" s="1"/>
+      <c r="D1089" s="5"/>
+      <c r="E1089" s="5"/>
+      <c r="F1089" s="5"/>
+      <c r="G1089" s="5"/>
+      <c r="H1089" s="1"/>
+      <c r="I1089" s="1"/>
+      <c r="J1089" s="1"/>
+      <c r="K1089" s="1"/>
+      <c r="L1089" s="1"/>
+      <c r="M1089" s="1"/>
+      <c r="N1089" s="1"/>
+      <c r="O1089" s="1"/>
+      <c r="P1089" s="1"/>
+      <c r="Q1089" s="1"/>
+      <c r="R1089" s="1"/>
+      <c r="S1089" s="1"/>
+      <c r="T1089" s="1"/>
+      <c r="U1089" s="1"/>
+      <c r="V1089" s="1"/>
+      <c r="W1089" s="1"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1"/>
+      <c r="B1090" s="1"/>
+      <c r="C1090" s="1"/>
+      <c r="D1090" s="5"/>
+      <c r="E1090" s="5"/>
+      <c r="F1090" s="5"/>
+      <c r="G1090" s="5"/>
+      <c r="H1090" s="1"/>
+      <c r="I1090" s="1"/>
+      <c r="J1090" s="1"/>
+      <c r="K1090" s="1"/>
+      <c r="L1090" s="1"/>
+      <c r="M1090" s="1"/>
+      <c r="N1090" s="1"/>
+      <c r="O1090" s="1"/>
+      <c r="P1090" s="1"/>
+      <c r="Q1090" s="1"/>
+      <c r="R1090" s="1"/>
+      <c r="S1090" s="1"/>
+      <c r="T1090" s="1"/>
+      <c r="U1090" s="1"/>
+      <c r="V1090" s="1"/>
+      <c r="W1090" s="1"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1"/>
+      <c r="B1091" s="1"/>
+      <c r="C1091" s="1"/>
+      <c r="D1091" s="5"/>
+      <c r="E1091" s="5"/>
+      <c r="F1091" s="5"/>
+      <c r="G1091" s="5"/>
+      <c r="H1091" s="1"/>
+      <c r="I1091" s="1"/>
+      <c r="J1091" s="1"/>
+      <c r="K1091" s="1"/>
+      <c r="L1091" s="1"/>
+      <c r="M1091" s="1"/>
+      <c r="N1091" s="1"/>
+      <c r="O1091" s="1"/>
+      <c r="P1091" s="1"/>
+      <c r="Q1091" s="1"/>
+      <c r="R1091" s="1"/>
+      <c r="S1091" s="1"/>
+      <c r="T1091" s="1"/>
+      <c r="U1091" s="1"/>
+      <c r="V1091" s="1"/>
+      <c r="W1091" s="1"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1"/>
+      <c r="B1092" s="1"/>
+      <c r="C1092" s="1"/>
+      <c r="D1092" s="5"/>
+      <c r="E1092" s="5"/>
+      <c r="F1092" s="5"/>
+      <c r="G1092" s="5"/>
+      <c r="H1092" s="1"/>
+      <c r="I1092" s="1"/>
+      <c r="J1092" s="1"/>
+      <c r="K1092" s="1"/>
+      <c r="L1092" s="1"/>
+      <c r="M1092" s="1"/>
+      <c r="N1092" s="1"/>
+      <c r="O1092" s="1"/>
+      <c r="P1092" s="1"/>
+      <c r="Q1092" s="1"/>
+      <c r="R1092" s="1"/>
+      <c r="S1092" s="1"/>
+      <c r="T1092" s="1"/>
+      <c r="U1092" s="1"/>
+      <c r="V1092" s="1"/>
+      <c r="W1092" s="1"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1"/>
+      <c r="B1093" s="1"/>
+      <c r="C1093" s="1"/>
+      <c r="D1093" s="5"/>
+      <c r="E1093" s="5"/>
+      <c r="F1093" s="5"/>
+      <c r="G1093" s="5"/>
+      <c r="H1093" s="1"/>
+      <c r="I1093" s="1"/>
+      <c r="J1093" s="1"/>
+      <c r="K1093" s="1"/>
+      <c r="L1093" s="1"/>
+      <c r="M1093" s="1"/>
+      <c r="N1093" s="1"/>
+      <c r="O1093" s="1"/>
+      <c r="P1093" s="1"/>
+      <c r="Q1093" s="1"/>
+      <c r="R1093" s="1"/>
+      <c r="S1093" s="1"/>
+      <c r="T1093" s="1"/>
+      <c r="U1093" s="1"/>
+      <c r="V1093" s="1"/>
+      <c r="W1093" s="1"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1"/>
+      <c r="B1094" s="1"/>
+      <c r="C1094" s="1"/>
+      <c r="D1094" s="5"/>
+      <c r="E1094" s="5"/>
+      <c r="F1094" s="5"/>
+      <c r="G1094" s="5"/>
+      <c r="H1094" s="1"/>
+      <c r="I1094" s="1"/>
+      <c r="J1094" s="1"/>
+      <c r="K1094" s="1"/>
+      <c r="L1094" s="1"/>
+      <c r="M1094" s="1"/>
+      <c r="N1094" s="1"/>
+      <c r="O1094" s="1"/>
+      <c r="P1094" s="1"/>
+      <c r="Q1094" s="1"/>
+      <c r="R1094" s="1"/>
+      <c r="S1094" s="1"/>
+      <c r="T1094" s="1"/>
+      <c r="U1094" s="1"/>
+      <c r="V1094" s="1"/>
+      <c r="W1094" s="1"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1"/>
+      <c r="B1095" s="1"/>
+      <c r="C1095" s="1"/>
+      <c r="D1095" s="5"/>
+      <c r="E1095" s="5"/>
+      <c r="F1095" s="5"/>
+      <c r="G1095" s="5"/>
+      <c r="H1095" s="1"/>
+      <c r="I1095" s="1"/>
+      <c r="J1095" s="1"/>
+      <c r="K1095" s="1"/>
+      <c r="L1095" s="1"/>
+      <c r="M1095" s="1"/>
+      <c r="N1095" s="1"/>
+      <c r="O1095" s="1"/>
+      <c r="P1095" s="1"/>
+      <c r="Q1095" s="1"/>
+      <c r="R1095" s="1"/>
+      <c r="S1095" s="1"/>
+      <c r="T1095" s="1"/>
+      <c r="U1095" s="1"/>
+      <c r="V1095" s="1"/>
+      <c r="W1095" s="1"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1"/>
+      <c r="B1096" s="1"/>
+      <c r="C1096" s="1"/>
+      <c r="D1096" s="5"/>
+      <c r="E1096" s="5"/>
+      <c r="F1096" s="5"/>
+      <c r="G1096" s="5"/>
+      <c r="H1096" s="1"/>
+      <c r="I1096" s="1"/>
+      <c r="J1096" s="1"/>
+      <c r="K1096" s="1"/>
+      <c r="L1096" s="1"/>
+      <c r="M1096" s="1"/>
+      <c r="N1096" s="1"/>
+      <c r="O1096" s="1"/>
+      <c r="P1096" s="1"/>
+      <c r="Q1096" s="1"/>
+      <c r="R1096" s="1"/>
+      <c r="S1096" s="1"/>
+      <c r="T1096" s="1"/>
+      <c r="U1096" s="1"/>
+      <c r="V1096" s="1"/>
+      <c r="W1096" s="1"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1"/>
+      <c r="B1097" s="1"/>
+      <c r="C1097" s="1"/>
+      <c r="D1097" s="5"/>
+      <c r="E1097" s="5"/>
+      <c r="F1097" s="5"/>
+      <c r="G1097" s="5"/>
+      <c r="H1097" s="1"/>
+      <c r="I1097" s="1"/>
+      <c r="J1097" s="1"/>
+      <c r="K1097" s="1"/>
+      <c r="L1097" s="1"/>
+      <c r="M1097" s="1"/>
+      <c r="N1097" s="1"/>
+      <c r="O1097" s="1"/>
+      <c r="P1097" s="1"/>
+      <c r="Q1097" s="1"/>
+      <c r="R1097" s="1"/>
+      <c r="S1097" s="1"/>
+      <c r="T1097" s="1"/>
+      <c r="U1097" s="1"/>
+      <c r="V1097" s="1"/>
+      <c r="W1097" s="1"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1"/>
+      <c r="B1098" s="1"/>
+      <c r="C1098" s="1"/>
+      <c r="D1098" s="5"/>
+      <c r="E1098" s="5"/>
+      <c r="F1098" s="5"/>
+      <c r="G1098" s="5"/>
+      <c r="H1098" s="1"/>
+      <c r="I1098" s="1"/>
+      <c r="J1098" s="1"/>
+      <c r="K1098" s="1"/>
+      <c r="L1098" s="1"/>
+      <c r="M1098" s="1"/>
+      <c r="N1098" s="1"/>
+      <c r="O1098" s="1"/>
+      <c r="P1098" s="1"/>
+      <c r="Q1098" s="1"/>
+      <c r="R1098" s="1"/>
+      <c r="S1098" s="1"/>
+      <c r="T1098" s="1"/>
+      <c r="U1098" s="1"/>
+      <c r="V1098" s="1"/>
+      <c r="W1098" s="1"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1"/>
+      <c r="B1099" s="1"/>
+      <c r="C1099" s="1"/>
+      <c r="D1099" s="5"/>
+      <c r="E1099" s="5"/>
+      <c r="F1099" s="5"/>
+      <c r="G1099" s="5"/>
+      <c r="H1099" s="1"/>
+      <c r="I1099" s="1"/>
+      <c r="J1099" s="1"/>
+      <c r="K1099" s="1"/>
+      <c r="L1099" s="1"/>
+      <c r="M1099" s="1"/>
+      <c r="N1099" s="1"/>
+      <c r="O1099" s="1"/>
+      <c r="P1099" s="1"/>
+      <c r="Q1099" s="1"/>
+      <c r="R1099" s="1"/>
+      <c r="S1099" s="1"/>
+      <c r="T1099" s="1"/>
+      <c r="U1099" s="1"/>
+      <c r="V1099" s="1"/>
+      <c r="W1099" s="1"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1"/>
+      <c r="B1100" s="1"/>
+      <c r="C1100" s="1"/>
+      <c r="D1100" s="5"/>
+      <c r="E1100" s="5"/>
+      <c r="F1100" s="5"/>
+      <c r="G1100" s="5"/>
+      <c r="H1100" s="1"/>
+      <c r="I1100" s="1"/>
+      <c r="J1100" s="1"/>
+      <c r="K1100" s="1"/>
+      <c r="L1100" s="1"/>
+      <c r="M1100" s="1"/>
+      <c r="N1100" s="1"/>
+      <c r="O1100" s="1"/>
+      <c r="P1100" s="1"/>
+      <c r="Q1100" s="1"/>
+      <c r="R1100" s="1"/>
+      <c r="S1100" s="1"/>
+      <c r="T1100" s="1"/>
+      <c r="U1100" s="1"/>
+      <c r="V1100" s="1"/>
+      <c r="W1100" s="1"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1"/>
+      <c r="B1101" s="1"/>
+      <c r="C1101" s="1"/>
+      <c r="D1101" s="5"/>
+      <c r="E1101" s="5"/>
+      <c r="F1101" s="5"/>
+      <c r="G1101" s="5"/>
+      <c r="H1101" s="1"/>
+      <c r="I1101" s="1"/>
+      <c r="J1101" s="1"/>
+      <c r="K1101" s="1"/>
+      <c r="L1101" s="1"/>
+      <c r="M1101" s="1"/>
+      <c r="N1101" s="1"/>
+      <c r="O1101" s="1"/>
+      <c r="P1101" s="1"/>
+      <c r="Q1101" s="1"/>
+      <c r="R1101" s="1"/>
+      <c r="S1101" s="1"/>
+      <c r="T1101" s="1"/>
+      <c r="U1101" s="1"/>
+      <c r="V1101" s="1"/>
+      <c r="W1101" s="1"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1"/>
+      <c r="B1102" s="1"/>
+      <c r="C1102" s="1"/>
+      <c r="D1102" s="5"/>
+      <c r="E1102" s="5"/>
+      <c r="F1102" s="5"/>
+      <c r="G1102" s="5"/>
+      <c r="H1102" s="1"/>
+      <c r="I1102" s="1"/>
+      <c r="J1102" s="1"/>
+      <c r="K1102" s="1"/>
+      <c r="L1102" s="1"/>
+      <c r="M1102" s="1"/>
+      <c r="N1102" s="1"/>
+      <c r="O1102" s="1"/>
+      <c r="P1102" s="1"/>
+      <c r="Q1102" s="1"/>
+      <c r="R1102" s="1"/>
+      <c r="S1102" s="1"/>
+      <c r="T1102" s="1"/>
+      <c r="U1102" s="1"/>
+      <c r="V1102" s="1"/>
+      <c r="W1102" s="1"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1"/>
+      <c r="B1103" s="1"/>
+      <c r="C1103" s="1"/>
+      <c r="D1103" s="5"/>
+      <c r="E1103" s="5"/>
+      <c r="F1103" s="5"/>
+      <c r="G1103" s="5"/>
+      <c r="H1103" s="1"/>
+      <c r="I1103" s="1"/>
+      <c r="J1103" s="1"/>
+      <c r="K1103" s="1"/>
+      <c r="L1103" s="1"/>
+      <c r="M1103" s="1"/>
+      <c r="N1103" s="1"/>
+      <c r="O1103" s="1"/>
+      <c r="P1103" s="1"/>
+      <c r="Q1103" s="1"/>
+      <c r="R1103" s="1"/>
+      <c r="S1103" s="1"/>
+      <c r="T1103" s="1"/>
+      <c r="U1103" s="1"/>
+      <c r="V1103" s="1"/>
+      <c r="W1103" s="1"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1"/>
+      <c r="B1104" s="1"/>
+      <c r="C1104" s="1"/>
+      <c r="D1104" s="5"/>
+      <c r="E1104" s="5"/>
+      <c r="F1104" s="5"/>
+      <c r="G1104" s="5"/>
+      <c r="H1104" s="1"/>
+      <c r="I1104" s="1"/>
+      <c r="J1104" s="1"/>
+      <c r="K1104" s="1"/>
+      <c r="L1104" s="1"/>
+      <c r="M1104" s="1"/>
+      <c r="N1104" s="1"/>
+      <c r="O1104" s="1"/>
+      <c r="P1104" s="1"/>
+      <c r="Q1104" s="1"/>
+      <c r="R1104" s="1"/>
+      <c r="S1104" s="1"/>
+      <c r="T1104" s="1"/>
+      <c r="U1104" s="1"/>
+      <c r="V1104" s="1"/>
+      <c r="W1104" s="1"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1"/>
+      <c r="B1105" s="1"/>
+      <c r="C1105" s="1"/>
+      <c r="D1105" s="5"/>
+      <c r="E1105" s="5"/>
+      <c r="F1105" s="5"/>
+      <c r="G1105" s="5"/>
+      <c r="H1105" s="1"/>
+      <c r="I1105" s="1"/>
+      <c r="J1105" s="1"/>
+      <c r="K1105" s="1"/>
+      <c r="L1105" s="1"/>
+      <c r="M1105" s="1"/>
+      <c r="N1105" s="1"/>
+      <c r="O1105" s="1"/>
+      <c r="P1105" s="1"/>
+      <c r="Q1105" s="1"/>
+      <c r="R1105" s="1"/>
+      <c r="S1105" s="1"/>
+      <c r="T1105" s="1"/>
+      <c r="U1105" s="1"/>
+      <c r="V1105" s="1"/>
+      <c r="W1105" s="1"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1"/>
+      <c r="B1106" s="1"/>
+      <c r="C1106" s="1"/>
+      <c r="D1106" s="5"/>
+      <c r="E1106" s="5"/>
+      <c r="F1106" s="5"/>
+      <c r="G1106" s="5"/>
+      <c r="H1106" s="1"/>
+      <c r="I1106" s="1"/>
+      <c r="J1106" s="1"/>
+      <c r="K1106" s="1"/>
+      <c r="L1106" s="1"/>
+      <c r="M1106" s="1"/>
+      <c r="N1106" s="1"/>
+      <c r="O1106" s="1"/>
+      <c r="P1106" s="1"/>
+      <c r="Q1106" s="1"/>
+      <c r="R1106" s="1"/>
+      <c r="S1106" s="1"/>
+      <c r="T1106" s="1"/>
+      <c r="U1106" s="1"/>
+      <c r="V1106" s="1"/>
+      <c r="W1106" s="1"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1"/>
+      <c r="B1107" s="1"/>
+      <c r="C1107" s="1"/>
+      <c r="D1107" s="5"/>
+      <c r="E1107" s="5"/>
+      <c r="F1107" s="5"/>
+      <c r="G1107" s="5"/>
+      <c r="H1107" s="1"/>
+      <c r="I1107" s="1"/>
+      <c r="J1107" s="1"/>
+      <c r="K1107" s="1"/>
+      <c r="L1107" s="1"/>
+      <c r="M1107" s="1"/>
+      <c r="N1107" s="1"/>
+      <c r="O1107" s="1"/>
+      <c r="P1107" s="1"/>
+      <c r="Q1107" s="1"/>
+      <c r="R1107" s="1"/>
+      <c r="S1107" s="1"/>
+      <c r="T1107" s="1"/>
+      <c r="U1107" s="1"/>
+      <c r="V1107" s="1"/>
+      <c r="W1107" s="1"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1"/>
+      <c r="B1108" s="1"/>
+      <c r="C1108" s="1"/>
+      <c r="D1108" s="5"/>
+      <c r="E1108" s="5"/>
+      <c r="F1108" s="5"/>
+      <c r="G1108" s="5"/>
+      <c r="H1108" s="1"/>
+      <c r="I1108" s="1"/>
+      <c r="J1108" s="1"/>
+      <c r="K1108" s="1"/>
+      <c r="L1108" s="1"/>
+      <c r="M1108" s="1"/>
+      <c r="N1108" s="1"/>
+      <c r="O1108" s="1"/>
+      <c r="P1108" s="1"/>
+      <c r="Q1108" s="1"/>
+      <c r="R1108" s="1"/>
+      <c r="S1108" s="1"/>
+      <c r="T1108" s="1"/>
+      <c r="U1108" s="1"/>
+      <c r="V1108" s="1"/>
+      <c r="W1108" s="1"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1"/>
+      <c r="B1109" s="1"/>
+      <c r="C1109" s="1"/>
+      <c r="D1109" s="5"/>
+      <c r="E1109" s="5"/>
+      <c r="F1109" s="5"/>
+      <c r="G1109" s="5"/>
+      <c r="H1109" s="1"/>
+      <c r="I1109" s="1"/>
+      <c r="J1109" s="1"/>
+      <c r="K1109" s="1"/>
+      <c r="L1109" s="1"/>
+      <c r="M1109" s="1"/>
+      <c r="N1109" s="1"/>
+      <c r="O1109" s="1"/>
+      <c r="P1109" s="1"/>
+      <c r="Q1109" s="1"/>
+      <c r="R1109" s="1"/>
+      <c r="S1109" s="1"/>
+      <c r="T1109" s="1"/>
+      <c r="U1109" s="1"/>
+      <c r="V1109" s="1"/>
+      <c r="W1109" s="1"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1"/>
+      <c r="B1110" s="1"/>
+      <c r="C1110" s="1"/>
+      <c r="D1110" s="5"/>
+      <c r="E1110" s="5"/>
+      <c r="F1110" s="5"/>
+      <c r="G1110" s="5"/>
+      <c r="H1110" s="1"/>
+      <c r="I1110" s="1"/>
+      <c r="J1110" s="1"/>
+      <c r="K1110" s="1"/>
+      <c r="L1110" s="1"/>
+      <c r="M1110" s="1"/>
+      <c r="N1110" s="1"/>
+      <c r="O1110" s="1"/>
+      <c r="P1110" s="1"/>
+      <c r="Q1110" s="1"/>
+      <c r="R1110" s="1"/>
+      <c r="S1110" s="1"/>
+      <c r="T1110" s="1"/>
+      <c r="U1110" s="1"/>
+      <c r="V1110" s="1"/>
+      <c r="W1110" s="1"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1"/>
+      <c r="B1111" s="1"/>
+      <c r="C1111" s="1"/>
+      <c r="D1111" s="5"/>
+      <c r="E1111" s="5"/>
+      <c r="F1111" s="5"/>
+      <c r="G1111" s="5"/>
+      <c r="H1111" s="1"/>
+      <c r="I1111" s="1"/>
+      <c r="J1111" s="1"/>
+      <c r="K1111" s="1"/>
+      <c r="L1111" s="1"/>
+      <c r="M1111" s="1"/>
+      <c r="N1111" s="1"/>
+      <c r="O1111" s="1"/>
+      <c r="P1111" s="1"/>
+      <c r="Q1111" s="1"/>
+      <c r="R1111" s="1"/>
+      <c r="S1111" s="1"/>
+      <c r="T1111" s="1"/>
+      <c r="U1111" s="1"/>
+      <c r="V1111" s="1"/>
+      <c r="W1111" s="1"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1"/>
+      <c r="B1112" s="1"/>
+      <c r="C1112" s="1"/>
+      <c r="D1112" s="5"/>
+      <c r="E1112" s="5"/>
+      <c r="F1112" s="5"/>
+      <c r="G1112" s="5"/>
+      <c r="H1112" s="1"/>
+      <c r="I1112" s="1"/>
+      <c r="J1112" s="1"/>
+      <c r="K1112" s="1"/>
+      <c r="L1112" s="1"/>
+      <c r="M1112" s="1"/>
+      <c r="N1112" s="1"/>
+      <c r="O1112" s="1"/>
+      <c r="P1112" s="1"/>
+      <c r="Q1112" s="1"/>
+      <c r="R1112" s="1"/>
+      <c r="S1112" s="1"/>
+      <c r="T1112" s="1"/>
+      <c r="U1112" s="1"/>
+      <c r="V1112" s="1"/>
+      <c r="W1112" s="1"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1"/>
+      <c r="B1113" s="1"/>
+      <c r="C1113" s="1"/>
+      <c r="D1113" s="5"/>
+      <c r="E1113" s="5"/>
+      <c r="F1113" s="5"/>
+      <c r="G1113" s="5"/>
+      <c r="H1113" s="1"/>
+      <c r="I1113" s="1"/>
+      <c r="J1113" s="1"/>
+      <c r="K1113" s="1"/>
+      <c r="L1113" s="1"/>
+      <c r="M1113" s="1"/>
+      <c r="N1113" s="1"/>
+      <c r="O1113" s="1"/>
+      <c r="P1113" s="1"/>
+      <c r="Q1113" s="1"/>
+      <c r="R1113" s="1"/>
+      <c r="S1113" s="1"/>
+      <c r="T1113" s="1"/>
+      <c r="U1113" s="1"/>
+      <c r="V1113" s="1"/>
+      <c r="W1113" s="1"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1"/>
+      <c r="B1114" s="1"/>
+      <c r="C1114" s="1"/>
+      <c r="D1114" s="5"/>
+      <c r="E1114" s="5"/>
+      <c r="F1114" s="5"/>
+      <c r="G1114" s="5"/>
+      <c r="H1114" s="1"/>
+      <c r="I1114" s="1"/>
+      <c r="J1114" s="1"/>
+      <c r="K1114" s="1"/>
+      <c r="L1114" s="1"/>
+      <c r="M1114" s="1"/>
+      <c r="N1114" s="1"/>
+      <c r="O1114" s="1"/>
+      <c r="P1114" s="1"/>
+      <c r="Q1114" s="1"/>
+      <c r="R1114" s="1"/>
+      <c r="S1114" s="1"/>
+      <c r="T1114" s="1"/>
+      <c r="U1114" s="1"/>
+      <c r="V1114" s="1"/>
+      <c r="W1114" s="1"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1"/>
+      <c r="B1115" s="1"/>
+      <c r="C1115" s="1"/>
+      <c r="D1115" s="5"/>
+      <c r="E1115" s="5"/>
+      <c r="F1115" s="5"/>
+      <c r="G1115" s="5"/>
+      <c r="H1115" s="1"/>
+      <c r="I1115" s="1"/>
+      <c r="J1115" s="1"/>
+      <c r="K1115" s="1"/>
+      <c r="L1115" s="1"/>
+      <c r="M1115" s="1"/>
+      <c r="N1115" s="1"/>
+      <c r="O1115" s="1"/>
+      <c r="P1115" s="1"/>
+      <c r="Q1115" s="1"/>
+      <c r="R1115" s="1"/>
+      <c r="S1115" s="1"/>
+      <c r="T1115" s="1"/>
+      <c r="U1115" s="1"/>
+      <c r="V1115" s="1"/>
+      <c r="W1115" s="1"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1"/>
+      <c r="B1116" s="1"/>
+      <c r="C1116" s="1"/>
+      <c r="D1116" s="5"/>
+      <c r="E1116" s="5"/>
+      <c r="F1116" s="5"/>
+      <c r="G1116" s="5"/>
+      <c r="H1116" s="1"/>
+      <c r="I1116" s="1"/>
+      <c r="J1116" s="1"/>
+      <c r="K1116" s="1"/>
+      <c r="L1116" s="1"/>
+      <c r="M1116" s="1"/>
+      <c r="N1116" s="1"/>
+      <c r="O1116" s="1"/>
+      <c r="P1116" s="1"/>
+      <c r="Q1116" s="1"/>
+      <c r="R1116" s="1"/>
+      <c r="S1116" s="1"/>
+      <c r="T1116" s="1"/>
+      <c r="U1116" s="1"/>
+      <c r="V1116" s="1"/>
+      <c r="W1116" s="1"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1"/>
+      <c r="B1117" s="1"/>
+      <c r="C1117" s="1"/>
+      <c r="D1117" s="5"/>
+      <c r="E1117" s="5"/>
+      <c r="F1117" s="5"/>
+      <c r="G1117" s="5"/>
+      <c r="H1117" s="1"/>
+      <c r="I1117" s="1"/>
+      <c r="J1117" s="1"/>
+      <c r="K1117" s="1"/>
+      <c r="L1117" s="1"/>
+      <c r="M1117" s="1"/>
+      <c r="N1117" s="1"/>
+      <c r="O1117" s="1"/>
+      <c r="P1117" s="1"/>
+      <c r="Q1117" s="1"/>
+      <c r="R1117" s="1"/>
+      <c r="S1117" s="1"/>
+      <c r="T1117" s="1"/>
+      <c r="U1117" s="1"/>
+      <c r="V1117" s="1"/>
+      <c r="W1117" s="1"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1"/>
+      <c r="B1118" s="1"/>
+      <c r="C1118" s="1"/>
+      <c r="D1118" s="5"/>
+      <c r="E1118" s="5"/>
+      <c r="F1118" s="5"/>
+      <c r="G1118" s="5"/>
+      <c r="H1118" s="1"/>
+      <c r="I1118" s="1"/>
+      <c r="J1118" s="1"/>
+      <c r="K1118" s="1"/>
+      <c r="L1118" s="1"/>
+      <c r="M1118" s="1"/>
+      <c r="N1118" s="1"/>
+      <c r="O1118" s="1"/>
+      <c r="P1118" s="1"/>
+      <c r="Q1118" s="1"/>
+      <c r="R1118" s="1"/>
+      <c r="S1118" s="1"/>
+      <c r="T1118" s="1"/>
+      <c r="U1118" s="1"/>
+      <c r="V1118" s="1"/>
+      <c r="W1118" s="1"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1"/>
+      <c r="B1119" s="1"/>
+      <c r="C1119" s="1"/>
+      <c r="D1119" s="5"/>
+      <c r="E1119" s="5"/>
+      <c r="F1119" s="5"/>
+      <c r="G1119" s="5"/>
+      <c r="H1119" s="1"/>
+      <c r="I1119" s="1"/>
+      <c r="J1119" s="1"/>
+      <c r="K1119" s="1"/>
+      <c r="L1119" s="1"/>
+      <c r="M1119" s="1"/>
+      <c r="N1119" s="1"/>
+      <c r="O1119" s="1"/>
+      <c r="P1119" s="1"/>
+      <c r="Q1119" s="1"/>
+      <c r="R1119" s="1"/>
+      <c r="S1119" s="1"/>
+      <c r="T1119" s="1"/>
+      <c r="U1119" s="1"/>
+      <c r="V1119" s="1"/>
+      <c r="W1119" s="1"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1"/>
+      <c r="B1120" s="1"/>
+      <c r="C1120" s="1"/>
+      <c r="D1120" s="5"/>
+      <c r="E1120" s="5"/>
+      <c r="F1120" s="5"/>
+      <c r="G1120" s="5"/>
+      <c r="H1120" s="1"/>
+      <c r="I1120" s="1"/>
+      <c r="J1120" s="1"/>
+      <c r="K1120" s="1"/>
+      <c r="L1120" s="1"/>
+      <c r="M1120" s="1"/>
+      <c r="N1120" s="1"/>
+      <c r="O1120" s="1"/>
+      <c r="P1120" s="1"/>
+      <c r="Q1120" s="1"/>
+      <c r="R1120" s="1"/>
+      <c r="S1120" s="1"/>
+      <c r="T1120" s="1"/>
+      <c r="U1120" s="1"/>
+      <c r="V1120" s="1"/>
+      <c r="W1120" s="1"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1"/>
+      <c r="B1121" s="1"/>
+      <c r="C1121" s="1"/>
+      <c r="D1121" s="5"/>
+      <c r="E1121" s="5"/>
+      <c r="F1121" s="5"/>
+      <c r="G1121" s="5"/>
+      <c r="H1121" s="1"/>
+      <c r="I1121" s="1"/>
+      <c r="J1121" s="1"/>
+      <c r="K1121" s="1"/>
+      <c r="L1121" s="1"/>
+      <c r="M1121" s="1"/>
+      <c r="N1121" s="1"/>
+      <c r="O1121" s="1"/>
+      <c r="P1121" s="1"/>
+      <c r="Q1121" s="1"/>
+      <c r="R1121" s="1"/>
+      <c r="S1121" s="1"/>
+      <c r="T1121" s="1"/>
+      <c r="U1121" s="1"/>
+      <c r="V1121" s="1"/>
+      <c r="W1121" s="1"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1"/>
+      <c r="B1122" s="1"/>
+      <c r="C1122" s="1"/>
+      <c r="D1122" s="5"/>
+      <c r="E1122" s="5"/>
+      <c r="F1122" s="5"/>
+      <c r="G1122" s="5"/>
+      <c r="H1122" s="1"/>
+      <c r="I1122" s="1"/>
+      <c r="J1122" s="1"/>
+      <c r="K1122" s="1"/>
+      <c r="L1122" s="1"/>
+      <c r="M1122" s="1"/>
+      <c r="N1122" s="1"/>
+      <c r="O1122" s="1"/>
+      <c r="P1122" s="1"/>
+      <c r="Q1122" s="1"/>
+      <c r="R1122" s="1"/>
+      <c r="S1122" s="1"/>
+      <c r="T1122" s="1"/>
+      <c r="U1122" s="1"/>
+      <c r="V1122" s="1"/>
+      <c r="W1122" s="1"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1"/>
+      <c r="B1123" s="1"/>
+      <c r="C1123" s="1"/>
+      <c r="D1123" s="5"/>
+      <c r="E1123" s="5"/>
+      <c r="F1123" s="5"/>
+      <c r="G1123" s="5"/>
+      <c r="H1123" s="1"/>
+      <c r="I1123" s="1"/>
+      <c r="J1123" s="1"/>
+      <c r="K1123" s="1"/>
+      <c r="L1123" s="1"/>
+      <c r="M1123" s="1"/>
+      <c r="N1123" s="1"/>
+      <c r="O1123" s="1"/>
+      <c r="P1123" s="1"/>
+      <c r="Q1123" s="1"/>
+      <c r="R1123" s="1"/>
+      <c r="S1123" s="1"/>
+      <c r="T1123" s="1"/>
+      <c r="U1123" s="1"/>
+      <c r="V1123" s="1"/>
+      <c r="W1123" s="1"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1"/>
+      <c r="B1124" s="1"/>
+      <c r="C1124" s="1"/>
+      <c r="D1124" s="5"/>
+      <c r="E1124" s="5"/>
+      <c r="F1124" s="5"/>
+      <c r="G1124" s="5"/>
+      <c r="H1124" s="1"/>
+      <c r="I1124" s="1"/>
+      <c r="J1124" s="1"/>
+      <c r="K1124" s="1"/>
+      <c r="L1124" s="1"/>
+      <c r="M1124" s="1"/>
+      <c r="N1124" s="1"/>
+      <c r="O1124" s="1"/>
+      <c r="P1124" s="1"/>
+      <c r="Q1124" s="1"/>
+      <c r="R1124" s="1"/>
+      <c r="S1124" s="1"/>
+      <c r="T1124" s="1"/>
+      <c r="U1124" s="1"/>
+      <c r="V1124" s="1"/>
+      <c r="W1124" s="1"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1"/>
+      <c r="B1125" s="1"/>
+      <c r="C1125" s="1"/>
+      <c r="D1125" s="5"/>
+      <c r="E1125" s="5"/>
+      <c r="F1125" s="5"/>
+      <c r="G1125" s="5"/>
+      <c r="H1125" s="1"/>
+      <c r="I1125" s="1"/>
+      <c r="J1125" s="1"/>
+      <c r="K1125" s="1"/>
+      <c r="L1125" s="1"/>
+      <c r="M1125" s="1"/>
+      <c r="N1125" s="1"/>
+      <c r="O1125" s="1"/>
+      <c r="P1125" s="1"/>
+      <c r="Q1125" s="1"/>
+      <c r="R1125" s="1"/>
+      <c r="S1125" s="1"/>
+      <c r="T1125" s="1"/>
+      <c r="U1125" s="1"/>
+      <c r="V1125" s="1"/>
+      <c r="W1125" s="1"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1"/>
+      <c r="B1126" s="1"/>
+      <c r="C1126" s="1"/>
+      <c r="D1126" s="5"/>
+      <c r="E1126" s="5"/>
+      <c r="F1126" s="5"/>
+      <c r="G1126" s="5"/>
+      <c r="H1126" s="1"/>
+      <c r="I1126" s="1"/>
+      <c r="J1126" s="1"/>
+      <c r="K1126" s="1"/>
+      <c r="L1126" s="1"/>
+      <c r="M1126" s="1"/>
+      <c r="N1126" s="1"/>
+      <c r="O1126" s="1"/>
+      <c r="P1126" s="1"/>
+      <c r="Q1126" s="1"/>
+      <c r="R1126" s="1"/>
+      <c r="S1126" s="1"/>
+      <c r="T1126" s="1"/>
+      <c r="U1126" s="1"/>
+      <c r="V1126" s="1"/>
+      <c r="W1126" s="1"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1"/>
+      <c r="B1127" s="1"/>
+      <c r="C1127" s="1"/>
+      <c r="D1127" s="5"/>
+      <c r="E1127" s="5"/>
+      <c r="F1127" s="5"/>
+      <c r="G1127" s="5"/>
+      <c r="H1127" s="1"/>
+      <c r="I1127" s="1"/>
+      <c r="J1127" s="1"/>
+      <c r="K1127" s="1"/>
+      <c r="L1127" s="1"/>
+      <c r="M1127" s="1"/>
+      <c r="N1127" s="1"/>
+      <c r="O1127" s="1"/>
+      <c r="P1127" s="1"/>
+      <c r="Q1127" s="1"/>
+      <c r="R1127" s="1"/>
+      <c r="S1127" s="1"/>
+      <c r="T1127" s="1"/>
+      <c r="U1127" s="1"/>
+      <c r="V1127" s="1"/>
+      <c r="W1127" s="1"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1"/>
+      <c r="B1128" s="1"/>
+      <c r="C1128" s="1"/>
+      <c r="D1128" s="5"/>
+      <c r="E1128" s="5"/>
+      <c r="F1128" s="5"/>
+      <c r="G1128" s="5"/>
+      <c r="H1128" s="1"/>
+      <c r="I1128" s="1"/>
+      <c r="J1128" s="1"/>
+      <c r="K1128" s="1"/>
+      <c r="L1128" s="1"/>
+      <c r="M1128" s="1"/>
+      <c r="N1128" s="1"/>
+      <c r="O1128" s="1"/>
+      <c r="P1128" s="1"/>
+      <c r="Q1128" s="1"/>
+      <c r="R1128" s="1"/>
+      <c r="S1128" s="1"/>
+      <c r="T1128" s="1"/>
+      <c r="U1128" s="1"/>
+      <c r="V1128" s="1"/>
+      <c r="W1128" s="1"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1"/>
+      <c r="B1129" s="1"/>
+      <c r="C1129" s="1"/>
+      <c r="D1129" s="5"/>
+      <c r="E1129" s="5"/>
+      <c r="F1129" s="5"/>
+      <c r="G1129" s="5"/>
+      <c r="H1129" s="1"/>
+      <c r="I1129" s="1"/>
+      <c r="J1129" s="1"/>
+      <c r="K1129" s="1"/>
+      <c r="L1129" s="1"/>
+      <c r="M1129" s="1"/>
+      <c r="N1129" s="1"/>
+      <c r="O1129" s="1"/>
+      <c r="P1129" s="1"/>
+      <c r="Q1129" s="1"/>
+      <c r="R1129" s="1"/>
+      <c r="S1129" s="1"/>
+      <c r="T1129" s="1"/>
+      <c r="U1129" s="1"/>
+      <c r="V1129" s="1"/>
+      <c r="W1129" s="1"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1"/>
+      <c r="B1130" s="1"/>
+      <c r="C1130" s="1"/>
+      <c r="D1130" s="5"/>
+      <c r="E1130" s="5"/>
+      <c r="F1130" s="5"/>
+      <c r="G1130" s="5"/>
+      <c r="H1130" s="1"/>
+      <c r="I1130" s="1"/>
+      <c r="J1130" s="1"/>
+      <c r="K1130" s="1"/>
+      <c r="L1130" s="1"/>
+      <c r="M1130" s="1"/>
+      <c r="N1130" s="1"/>
+      <c r="O1130" s="1"/>
+      <c r="P1130" s="1"/>
+      <c r="Q1130" s="1"/>
+      <c r="R1130" s="1"/>
+      <c r="S1130" s="1"/>
+      <c r="T1130" s="1"/>
+      <c r="U1130" s="1"/>
+      <c r="V1130" s="1"/>
+      <c r="W1130" s="1"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1"/>
+      <c r="B1131" s="1"/>
+      <c r="C1131" s="1"/>
+      <c r="D1131" s="5"/>
+      <c r="E1131" s="5"/>
+      <c r="F1131" s="5"/>
+      <c r="G1131" s="5"/>
+      <c r="H1131" s="1"/>
+      <c r="I1131" s="1"/>
+      <c r="J1131" s="1"/>
+      <c r="K1131" s="1"/>
+      <c r="L1131" s="1"/>
+      <c r="M1131" s="1"/>
+      <c r="N1131" s="1"/>
+      <c r="O1131" s="1"/>
+      <c r="P1131" s="1"/>
+      <c r="Q1131" s="1"/>
+      <c r="R1131" s="1"/>
+      <c r="S1131" s="1"/>
+      <c r="T1131" s="1"/>
+      <c r="U1131" s="1"/>
+      <c r="V1131" s="1"/>
+      <c r="W1131" s="1"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1"/>
+      <c r="B1132" s="1"/>
+      <c r="C1132" s="1"/>
+      <c r="D1132" s="5"/>
+      <c r="E1132" s="5"/>
+      <c r="F1132" s="5"/>
+      <c r="G1132" s="5"/>
+      <c r="H1132" s="1"/>
+      <c r="I1132" s="1"/>
+      <c r="J1132" s="1"/>
+      <c r="K1132" s="1"/>
+      <c r="L1132" s="1"/>
+      <c r="M1132" s="1"/>
+      <c r="N1132" s="1"/>
+      <c r="O1132" s="1"/>
+      <c r="P1132" s="1"/>
+      <c r="Q1132" s="1"/>
+      <c r="R1132" s="1"/>
+      <c r="S1132" s="1"/>
+      <c r="T1132" s="1"/>
+      <c r="U1132" s="1"/>
+      <c r="V1132" s="1"/>
+      <c r="W1132" s="1"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1"/>
+      <c r="B1133" s="1"/>
+      <c r="C1133" s="1"/>
+      <c r="D1133" s="5"/>
+      <c r="E1133" s="5"/>
+      <c r="F1133" s="5"/>
+      <c r="G1133" s="5"/>
+      <c r="H1133" s="1"/>
+      <c r="I1133" s="1"/>
+      <c r="J1133" s="1"/>
+      <c r="K1133" s="1"/>
+      <c r="L1133" s="1"/>
+      <c r="M1133" s="1"/>
+      <c r="N1133" s="1"/>
+      <c r="O1133" s="1"/>
+      <c r="P1133" s="1"/>
+      <c r="Q1133" s="1"/>
+      <c r="R1133" s="1"/>
+      <c r="S1133" s="1"/>
+      <c r="T1133" s="1"/>
+      <c r="U1133" s="1"/>
+      <c r="V1133" s="1"/>
+      <c r="W1133" s="1"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1"/>
+      <c r="B1134" s="1"/>
+      <c r="C1134" s="1"/>
+      <c r="D1134" s="5"/>
+      <c r="E1134" s="5"/>
+      <c r="F1134" s="5"/>
+      <c r="G1134" s="5"/>
+      <c r="H1134" s="1"/>
+      <c r="I1134" s="1"/>
+      <c r="J1134" s="1"/>
+      <c r="K1134" s="1"/>
+      <c r="L1134" s="1"/>
+      <c r="M1134" s="1"/>
+      <c r="N1134" s="1"/>
+      <c r="O1134" s="1"/>
+      <c r="P1134" s="1"/>
+      <c r="Q1134" s="1"/>
+      <c r="R1134" s="1"/>
+      <c r="S1134" s="1"/>
+      <c r="T1134" s="1"/>
+      <c r="U1134" s="1"/>
+      <c r="V1134" s="1"/>
+      <c r="W1134" s="1"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1"/>
+      <c r="B1135" s="1"/>
+      <c r="C1135" s="1"/>
+      <c r="D1135" s="5"/>
+      <c r="E1135" s="5"/>
+      <c r="F1135" s="5"/>
+      <c r="G1135" s="5"/>
+      <c r="H1135" s="1"/>
+      <c r="I1135" s="1"/>
+      <c r="J1135" s="1"/>
+      <c r="K1135" s="1"/>
+      <c r="L1135" s="1"/>
+      <c r="M1135" s="1"/>
+      <c r="N1135" s="1"/>
+      <c r="O1135" s="1"/>
+      <c r="P1135" s="1"/>
+      <c r="Q1135" s="1"/>
+      <c r="R1135" s="1"/>
+      <c r="S1135" s="1"/>
+      <c r="T1135" s="1"/>
+      <c r="U1135" s="1"/>
+      <c r="V1135" s="1"/>
+      <c r="W1135" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E37"/>
     <hyperlink r:id="rId2" ref="E69"/>
     <hyperlink r:id="rId3" ref="E105"/>
     <hyperlink r:id="rId4" ref="E106"/>
-    <hyperlink r:id="rId5" ref="E141"/>
-    <hyperlink r:id="rId6" ref="E148"/>
-    <hyperlink r:id="rId7" ref="E149"/>
+    <hyperlink r:id="rId5" ref="E113"/>
+    <hyperlink r:id="rId6" ref="E120"/>
+    <hyperlink r:id="rId7" ref="E177"/>
+    <hyperlink r:id="rId8" ref="E184"/>
+    <hyperlink r:id="rId9" ref="E185"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>